--- a/多线程/多线程基础.xlsx
+++ b/多线程/多线程基础.xlsx
@@ -1,43 +1,499 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="20490" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="第一章 走进线程" sheetId="1" r:id="rId1"/>
+    <sheet name="第二章 多线程目标与挑战" sheetId="2" r:id="rId2"/>
+    <sheet name="第三章 线程同步机制" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>线程两种创建方式的区别</t>
+  </si>
+  <si>
+    <t>从对象创建成本的角度来看，Java中的线程实例是一个特殊的Runable实例，因为在创建它的时候Java虚拟机会为其分配调用栈空间，内核线程等资源。</t>
+  </si>
+  <si>
+    <t>因此创建一个线程实力比起创建一个普通的Runable实例来说，其成本要相对昂贵一点。</t>
+  </si>
+  <si>
+    <t>所以如果创建Runable实例再将其作为方法参数传递给其他对象使用而不必利用它来创建相应的线程</t>
+  </si>
+  <si>
+    <t>即可满足我们的计算需要，那么久不要创建线程实例。</t>
+  </si>
+  <si>
+    <t>Thread常用的方法</t>
+  </si>
+  <si>
+    <t>currentThread()</t>
+  </si>
+  <si>
+    <t>run()</t>
+  </si>
+  <si>
+    <t>start()</t>
+  </si>
+  <si>
+    <t>join()</t>
+  </si>
+  <si>
+    <t>yield()</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>线程的生命周期</t>
+  </si>
+  <si>
+    <t>NEW：一个已经创建而未启动的线程</t>
+  </si>
+  <si>
+    <t>Runable</t>
+  </si>
+  <si>
+    <t>Ready：改状态的线程可以被线程调度器进行调度而使之处于Running</t>
+  </si>
+  <si>
+    <t>Running：线程正在运行，相应对象调用run方法所以应的指令正在由处理器执行</t>
+  </si>
+  <si>
+    <t>Blocked：一个线程发起一个阻塞式IO操作，或者申请一个由其他线程持有的独占资源（锁）时，相应的线程会处于该状态。处于该状态的线程并不会占用处理器资源。当IO操作完成后，或者线程获得了其他申请的资源，该线程的状态又可以转换为Runable</t>
+  </si>
+  <si>
+    <t>Waiting：执行了Object.wait某些特定方法之后就处于这种等待其他线程执行另外一些特定操作的状态。Waiting变更为Run那边了的方法包括Object.notify</t>
+  </si>
+  <si>
+    <t>Timed_Waiting：该状态和Waiting类似，带有时间限制的等待状态</t>
+  </si>
+  <si>
+    <t>Terminated：已经致信刚结束的线程处于该状态</t>
+  </si>
+  <si>
+    <t>线程安全</t>
+  </si>
+  <si>
+    <t>一个类在单线程环境下能够运行正常，并且在多线程环境下，在其使用方不必为其做任何改变的情况下也能运行正常，那么我们就称其线程安全</t>
+  </si>
+  <si>
+    <t>线程原子性</t>
+  </si>
+  <si>
+    <t>对于设计共享变量访问的操作，诺该操作从其执行线程以外的任意线程来看是不可分割的，那么该操作就是原子操作</t>
+  </si>
+  <si>
+    <t>Java语言中long，double以外的任何类型的变量的写操作都是原子操作</t>
+  </si>
+  <si>
+    <t>Java语言中对任何变量的读操作都是原子性</t>
+  </si>
+  <si>
+    <t>线程可见性</t>
+  </si>
+  <si>
+    <t>在多线程环境下，一个线程对某个共享变量进行更新之后，后续访问该变量的线程可能无法立刻读取到这个更新的结果，线程安全问题的另一个表现形式，可见性</t>
+  </si>
+  <si>
+    <t>缓存同步</t>
+  </si>
+  <si>
+    <t>虽然一个才处理器的缓存中的内容更不能被另一个处理器直接读取，但是一个处理器可以通过缓存一致性协议来读取其他处理器的缓存中的数据</t>
+  </si>
+  <si>
+    <t>并将读到的数据更新到该处理器的缓存中。</t>
+  </si>
+  <si>
+    <t>解决缓存同步的方法</t>
+  </si>
+  <si>
+    <t>读取一个volatile关键字修饰的变量会使相应的处理器执行刷新处理器缓存的动作</t>
+  </si>
+  <si>
+    <t>写一个volatile关键字修饰的变量会使乡音的处理器执行冲刷处理器缓存的动作，保证可见性</t>
+  </si>
+  <si>
+    <t>线程有序性</t>
+  </si>
+  <si>
+    <t>指令重排</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,24 +501,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -111,7 +853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -146,7 +888,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -320,23 +1062,233 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/多线程/多线程基础.xlsx
+++ b/多线程/多线程基础.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JavaMS\多线程\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297A5F2A-2A3D-487B-B3E9-3EB106A2F23E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 走进线程" sheetId="1" r:id="rId1"/>
     <sheet name="第二章 多线程目标与挑战" sheetId="2" r:id="rId2"/>
     <sheet name="第三章 线程同步机制" sheetId="3" r:id="rId3"/>
+    <sheet name="第五章 线程间协作" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>线程两种创建方式的区别</t>
   </si>
@@ -136,34 +131,127 @@
   </si>
   <si>
     <t>锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>线程安全问题的产生前提是多个线程并发访问共享变量，共享资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>于是很容易想到一种保障线程安全的方法，将多个线程对共享数据的并发访问转换为串行访问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一个共享数据一次只能背一个线程访问，该线程访问结束后其他线程才能对其进行访问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>锁就是利用这种思路以保障线程安全的线程同步机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>锁的可重入性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可重入锁可以被理解为一个对象，该对象包含一个计数器属性。</t>
+  </si>
+  <si>
+    <t>计数器属性的初始化为0，表示相应的锁还没有被任何线程持有。每次线程活得一个可重入锁的时候，该锁的计数器值会被加1</t>
+  </si>
+  <si>
+    <t>每次一个线程释放锁的时候，该锁的计数器属性值就会被减1。</t>
+  </si>
+  <si>
+    <t>一个可重入锁的持有线程初次获得该锁时相应的开销相对大，这是因为该锁的持有线程必须与其他线程竞争已获得锁</t>
+  </si>
+  <si>
+    <t>可重入锁的持有线程继续获得相应锁所产生的开销要小得多，这是因为此时Java虚拟机只需要将相应锁的计数器属性值加1即可以实现锁的获得</t>
+  </si>
+  <si>
+    <t>内部锁的调度Synchronize</t>
+  </si>
+  <si>
+    <t>Java虚拟机会为每个内部锁分配一个入口Entry Set，用于记录等待活得相应内部锁的多线程</t>
+  </si>
+  <si>
+    <t>多个线程申请桶一个锁的时候，只有一个申请者能够成为该锁的持有线程，其他申请者的申请你操作会失败</t>
+  </si>
+  <si>
+    <t>这些申请失败的线程并不会抛出异常，而是会被暂停（生命周期状态变为BLOCKED）并被存入相应锁的入口集中等待再次申请锁的机会</t>
+  </si>
+  <si>
+    <t>入口集中的线程就被成为相应内部锁的等待线程。当这些线程申请的锁被其持有线程释放的时候，该锁的入口集中的一个任意线程会被Java虚拟机唤醒</t>
+  </si>
+  <si>
+    <t>从而得到再次申请锁的机会</t>
+  </si>
+  <si>
+    <t>读写锁ReadWriteLock</t>
+  </si>
+  <si>
+    <t>读写锁允许多个线程可以同时读取共享变量，但是一次只允许一个线程对共享变量进行更新</t>
+  </si>
+  <si>
+    <t>任何线程读取共享变量的时候，其他线程无法更新这些变量，和一个线程更新共享变量的时候，其他任何线程都无法访问该变量</t>
+  </si>
+  <si>
+    <t>volatile作用</t>
+  </si>
+  <si>
+    <t>一个变量在多个线程中可见</t>
+  </si>
+  <si>
+    <t>是有序性的，volatile 是因为其本身包含“禁止指令重排序”的语义</t>
+  </si>
+  <si>
+    <t>虽然能保障有序，但是它不像锁那样具备排他性，所以并不能保障其他操作的原子性，只能保障对被修饰变量的写操作的原子性</t>
+  </si>
+  <si>
+    <t>wait/notify</t>
+  </si>
+  <si>
+    <t>在单线程中，程序要执行的操作如果要满足一定条件才能执行，那么我们可以将该操作放在一个if里，满足条件才会被执行</t>
+  </si>
+  <si>
+    <t>在多线程中处理这种情况，我们可以将当前线程暂停wait，知道其所需的保护条件成立时再唤醒</t>
+  </si>
+  <si>
+    <t>wait方法释放锁，线程等待</t>
+  </si>
+  <si>
+    <t>notify方法不释放锁，唤醒线程</t>
+  </si>
+  <si>
+    <t>wait,notify必须使用synchronized关键字</t>
+  </si>
+  <si>
+    <t>举例：</t>
+  </si>
+  <si>
+    <t>线程1往集合中添加10个元素，线程2判断元素个数是否超过5，当线程1添加到第五个的时候唤醒线程2</t>
+  </si>
+  <si>
+    <t>第一个线程查询1000W条数据中的某一条，如果第一条就查到了，此时锁是不会释放的，要等到1000W条全部查完才能释放，不是实时的。</t>
+  </si>
+  <si>
+    <t>倒计时协调器CountDownLatch</t>
+  </si>
+  <si>
+    <t>CyclicBarrier</t>
+  </si>
+  <si>
+    <t>阻塞队列</t>
+  </si>
+  <si>
+    <t>InterruptedException</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,21 +260,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -194,24 +606,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -469,91 +1167,91 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -561,51 +1259,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -613,7 +1312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -621,17 +1320,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -639,7 +1338,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -647,82 +1346,255 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>42</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/多线程/多线程基础.xlsx
+++ b/多线程/多线程基础.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7935" activeTab="3"/>
+    <workbookView windowWidth="19935" windowHeight="7935" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 走进线程" sheetId="1" r:id="rId1"/>
     <sheet name="第二章 多线程目标与挑战" sheetId="2" r:id="rId2"/>
     <sheet name="第三章 线程同步机制" sheetId="3" r:id="rId3"/>
     <sheet name="第五章 线程间协作" sheetId="4" r:id="rId4"/>
+    <sheet name="第六章 保障线程安全的设计技术" sheetId="5" r:id="rId5"/>
+    <sheet name="第七章 线程的活性故障" sheetId="6" r:id="rId6"/>
+    <sheet name="第八章 线程管理" sheetId="7" r:id="rId7"/>
+    <sheet name="第九章 Java异步编程" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="196">
   <si>
     <t>线程两种创建方式的区别</t>
   </si>
@@ -232,13 +236,379 @@
     <t>倒计时协调器CountDownLatch</t>
   </si>
   <si>
+    <t>内部维护一个用于表示未完成的先决操作数量的计数器</t>
+  </si>
+  <si>
+    <t>CountDownLatch.countDown()每被执行一次就会使相应实例的计数器值减少1</t>
+  </si>
+  <si>
+    <t>CountDownLatch.await()相当于一个受保护方法，其保护条件为计数器值为0目标操作是一个空操作</t>
+  </si>
+  <si>
+    <t>当计数器值部位0时，CountDownLatch.await()的执行线程会被暂停，这些线程就会被称为相应CountDownLatch上的等待线程</t>
+  </si>
+  <si>
+    <t>CountDownLatch.countDown()相当于一个通知方法，他会在计数器达到0的时候唤醒相应实例上的所有等待线程</t>
+  </si>
+  <si>
+    <t>当计数器的值达到0之后，计数器的值就不再发生变化。</t>
+  </si>
+  <si>
+    <t>调用CountDownLatch.countDown()并不会导致异常的抛出，并且后续执行CountDownLatch.await()的线程也不会被暂停。</t>
+  </si>
+  <si>
+    <t>因此CountDownLatch的使用是一次性的，一个CountDownLatch实例只能够实现一次等待和唤醒</t>
+  </si>
+  <si>
     <t>CyclicBarrier</t>
   </si>
   <si>
+    <t>实现等待的线程被称为参与方，只需要执行CyclicBarrier.await()就可以实现等待</t>
+  </si>
+  <si>
+    <t>尽管从代码角度来看，参与方是并发执行CyclicBarrier.await()的，但是CyclicBarrier内部维护了一个显示锁</t>
+  </si>
+  <si>
+    <t>这使得其总是可以在参与方中区分一个最后执行CyclicBarrier.await()都会导致该线程被称为最后一个线程</t>
+  </si>
+  <si>
+    <t>除最后一个线程外的任何参与方执行CyclicBarrier.await()都会导致该线程被暂停。</t>
+  </si>
+  <si>
+    <t>最后一个执行CyclicBarrier.await()会使得使用相应CyclicBarrier实例的其他所有参与方被唤醒，二最后一个线程自身并不会被暂停</t>
+  </si>
+  <si>
+    <t>CyclicBarrier内部实现</t>
+  </si>
+  <si>
+    <t>CyclicBarrier内部使用了一个条件变量trip来实现等待/通知。CyclicBarrier内部实现使用了分代的概念用于表示CyclicBarrier实例是可以重复使用的</t>
+  </si>
+  <si>
+    <t>除最后一个线程外的任何一个参与方都相当于一个等待线程，这些线程所使用的保护条件是当前分代内，尚未执行await方法的参与方个数为0</t>
+  </si>
+  <si>
+    <t>当前分代的初始化状态是parties会使相应实例的parties值减少1.</t>
+  </si>
+  <si>
+    <t>最后一个线程相当于通知线程，他执行CyclicBarrier.await()会使相应实例的parties值变为0</t>
+  </si>
+  <si>
+    <t>此时线程会先执行barrierAction.run()，然后在执行trip.signalAll()来唤醒所有等待线程。</t>
+  </si>
+  <si>
+    <t>借着开始下一个分代，即使得CyclicBarrier的parties值又重新恢复为其初始值</t>
+  </si>
+  <si>
     <t>阻塞队列</t>
   </si>
   <si>
+    <t>ArrayBlockingQueue</t>
+  </si>
+  <si>
+    <t>内部使用一个数组作为其存储空间，数组的存储空间是预先分配的</t>
+  </si>
+  <si>
+    <t>因此ArrayBlockingQueue的put操作take操作本身并不会增加垃圾回收的负担。</t>
+  </si>
+  <si>
+    <t>缺点是内部在实现put,take操作的时候使用的是同一个锁，从而可能导致锁的高争用，进而导致较多的上下文切换</t>
+  </si>
+  <si>
+    <t>LinkedBlockingQueue</t>
+  </si>
+  <si>
+    <t>能实现有界，无界队列</t>
+  </si>
+  <si>
+    <t>LinkedBlockingQueue允许我们创建队列的时候指定队列容量</t>
+  </si>
+  <si>
+    <t>优点是其内部在实现put,take操作的时候分别使用两个显式锁putlock，takelock，降低了锁争用的可能性</t>
+  </si>
+  <si>
+    <t>LinkedBlockingQueue的内部存储空间是一个链表，而链表节点对象所需要的存储空间是动态分配的，put操作，take操作都会导致链表节点的动态创建和移除</t>
+  </si>
+  <si>
+    <t>因此LinkedBlockingQueue的缺点是它可能增加垃圾回收的负担。</t>
+  </si>
+  <si>
+    <t>另外犹豫LinkedBlockingQueue的put,take操作使用的是两个锁，因此LinkedBlockingQueue维护其队列的当前长度时无法使用一个普通的int变量，而是用一个原子变量AtomicInteger。</t>
+  </si>
+  <si>
+    <t>这个原子变量可能会被生产者线程和消费者线程争用，因此它可能导致额外的开销</t>
+  </si>
+  <si>
+    <t>SynchronousQueue</t>
+  </si>
+  <si>
+    <t>一种特殊的有界队列，类似于挂号信，适用于在消费者处理能力与生产者处理能力相差不大的情况下使用</t>
+  </si>
+  <si>
+    <t>内部并不维护用于存储队列元素的存储空间</t>
+  </si>
+  <si>
+    <t>生产者线程执行synchronousQueue.put时如果没有消费者线程执行synchronousQueue.take，那么该生产者线程会被暂停，知道有消费者线程执行了take</t>
+  </si>
+  <si>
+    <t>消费者线程执行synchronousQueue.take时如果没有生产者执行了put，那么消费者线程会被暂停，知道有生产者线程执行了put</t>
+  </si>
+  <si>
+    <t>生产者线程生产好一个产品之后，会等待消费线程来取走这个产品才继续生产下一个产品</t>
+  </si>
+  <si>
     <t>InterruptedException</t>
+  </si>
+  <si>
+    <t>ThreadLocal</t>
+  </si>
+  <si>
+    <t>线程持有对象的一个代理</t>
+  </si>
+  <si>
+    <t>ThreadLocal实例，每个访问它的线程都关联了一个该线程的线程持有对象</t>
+  </si>
+  <si>
+    <t>ThreadLocal内部实现机制</t>
+  </si>
+  <si>
+    <t>每个线程Thread实例内部会维护一个类似HashMap的对象，我们称之为ThreadLocalMap</t>
+  </si>
+  <si>
+    <t>每个ThreadLocalMap内部包含诺干个Entry(kev,value键值对)</t>
+  </si>
+  <si>
+    <t>因此，我们可以说每个线程都拥有诺干个这样的条目，相应线程就被称为这些条目的属主线程</t>
+  </si>
+  <si>
+    <t>Entry的key是一个ThreadLocal实例与一个线程持有对象之间的对应关系</t>
+  </si>
+  <si>
+    <t>由于Entry对ThreadLocal实例的引用（通过key引用）是一个弱引用，因此他不会阻止被引用的ThreadLocal实例被垃圾回收。</t>
+  </si>
+  <si>
+    <t>当一个ThreadLocal实例没有对其可达的强引用时，这个实例可以被垃圾回收，所在的Entry的key=null</t>
+  </si>
+  <si>
+    <t>另一方面，由于Entry对线程持有对象的引用是强引用，因此如果无效条目本身有对它的可达强引用，那么无效条目也会组织其引用的线程持有对象被垃圾回收</t>
+  </si>
+  <si>
+    <t>线程持有对象</t>
+  </si>
+  <si>
+    <t>一个实例只能被一个线程访问的对象</t>
+  </si>
+  <si>
+    <t>线程持有对象可能导致的问题和规避</t>
+  </si>
+  <si>
+    <t>退化与数据错乱</t>
+  </si>
+  <si>
+    <t>线程和任务之间可以是一对多的关系，一个线程可以先后执行多个任务，incident线程持有对象就相当于一个线程所执行的多个任务之间的共享对象</t>
+  </si>
+  <si>
+    <t>如果线程持有对象时有状态对象，状态会随着相应线程所以执行的任务改变，</t>
+  </si>
+  <si>
+    <t>那么这个线程所执行的下一个任务可能看到来自前一个任务的数据，而这个数据可能与该任务并不匹配，从而导致数据错乱</t>
+  </si>
+  <si>
+    <t>因此当一个线程要执行多个任务的情况下（比如生产者-消费者模式）使用线程持有对象，</t>
+  </si>
+  <si>
+    <t>我们需要保持每个任务的处理逻辑被执行前相应的线程持有对象的状态不受前一个被执行任务的影响</t>
+  </si>
+  <si>
+    <t>这个通常可以通过在任务处理逻辑被执行前为线程局部变量重新关联一个线程持有对象通过ThreadLocal.set方法来实现</t>
+  </si>
+  <si>
+    <t>导致内存泄漏</t>
+  </si>
+  <si>
+    <t>当ThreadLocalMap中有新的ThreadLocal到线程持有对象的映射（对应）关系被创建（相当于有新的Entry被添加到ThreadLocalMap)的时候</t>
+  </si>
+  <si>
+    <t>ThreadLocalMap会将无效条目清理掉，这打破了无效条目对应线程持有对象的强引用，从而使相应的线程持有对象能够被垃圾回收。</t>
+  </si>
+  <si>
+    <t>但是这个处理也有一个缺点，一个线程访问过线程局部变量之后如果该线程有对其可达的强引用，并且该线程在相当长的时间处于非运行状态</t>
+  </si>
+  <si>
+    <t>那么该线程的ThreadLocalMap可能就不会有任何变化，因此相应的ThreadLocalMap中的无效条目也不会被清理，这就可能导致这些线程的各个Entry</t>
+  </si>
+  <si>
+    <t>所引用的线程持有对象都无法被垃圾回收，即导致了内存泄漏</t>
+  </si>
+  <si>
+    <t>并发集合</t>
+  </si>
+  <si>
+    <t>非线程安全对象</t>
+  </si>
+  <si>
+    <t>并发集合类</t>
+  </si>
+  <si>
+    <t>共同接口</t>
+  </si>
+  <si>
+    <t>遍历实现方式</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>CopyOnWriteArrayList</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>快照</t>
+  </si>
+  <si>
+    <t>HashSet</t>
+  </si>
+  <si>
+    <t>CopyOnWriteArraySet</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>ConcurrentLinkedQueue</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>准实时</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>TreeMap</t>
+  </si>
+  <si>
+    <t>ConcurrentSkipListMap</t>
+  </si>
+  <si>
+    <t>SortedMap</t>
+  </si>
+  <si>
+    <t>TreeSet</t>
+  </si>
+  <si>
+    <t>ConcurrentSkipListSet</t>
+  </si>
+  <si>
+    <t>SortedSet</t>
+  </si>
+  <si>
+    <t>是Queue接口的一个线程安全实现类</t>
+  </si>
+  <si>
+    <t>相当于LinkedList的线程安全版</t>
+  </si>
+  <si>
+    <t>可以作为synchronizedList的替代品</t>
+  </si>
+  <si>
+    <t>内部访问其共享状态变量的时候并不借助锁，而是使用CAS操作来保障线程安全</t>
+  </si>
+  <si>
+    <t>是非阻塞的</t>
+  </si>
+  <si>
+    <t>遍历是准实时的</t>
+  </si>
+  <si>
+    <t>与BlockingQueue的实现类相比，ConcurrentLinkedQueue更适合于更新操作和遍历操作并发的场景</t>
+  </si>
+  <si>
+    <t>比如一个或多个线程往队列中添加删除元素，另一个线程则对相应的队列进行遍历操作</t>
+  </si>
+  <si>
+    <t>死锁</t>
+  </si>
+  <si>
+    <t>两个或更多的线程因相互等待对方而被永远暂停（线程生命周期为BLOCKED，或者WAITING)</t>
+  </si>
+  <si>
+    <t>那我们就称这些线程产生了死锁</t>
+  </si>
+  <si>
+    <t>线程饥饿</t>
+  </si>
+  <si>
+    <t>线程一直无法获得资源而导致任务一直无法进展的换一种活性故障</t>
+  </si>
+  <si>
+    <t>活锁</t>
+  </si>
+  <si>
+    <t>线程一直处于运行状态，但是其任务却一直无法进展的一种活性故障</t>
+  </si>
+  <si>
+    <t>比如小猫咬自己的尾巴这种无用功</t>
+  </si>
+  <si>
+    <t>线程池参数</t>
+  </si>
+  <si>
+    <t>ThreadPoolExecutor</t>
+  </si>
+  <si>
+    <t>int corePoolSize</t>
+  </si>
+  <si>
+    <t>核心线程数</t>
+  </si>
+  <si>
+    <t>int maximumPoolSize</t>
+  </si>
+  <si>
+    <t>最大线程数</t>
+  </si>
+  <si>
+    <t>long keepAliveTime</t>
+  </si>
+  <si>
+    <t>空闲线程最大存活时间</t>
+  </si>
+  <si>
+    <t>TimeUnit unit</t>
+  </si>
+  <si>
+    <t>时间单位</t>
+  </si>
+  <si>
+    <t>BlockingQueue workQueue</t>
+  </si>
+  <si>
+    <t>工作队列的阻塞队列</t>
+  </si>
+  <si>
+    <t>ThreadFactory threadFactory</t>
+  </si>
+  <si>
+    <t>用于创建工作者线程工厂</t>
+  </si>
+  <si>
+    <t>RejectedExecutionHandler handler</t>
+  </si>
+  <si>
+    <t>所实现处理的策略</t>
   </si>
 </sst>
 </file>
@@ -246,10 +616,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -260,34 +630,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,20 +677,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -337,7 +684,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,7 +705,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -376,31 +760,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -413,79 +783,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,25 +807,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,49 +939,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,7 +963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,6 +974,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -618,48 +1012,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,17 +1042,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,10 +1080,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,133 +1092,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -913,6 +1283,1083 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="2457450"/>
+          <a:ext cx="914400" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Thread</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2622550" y="2689225"/>
+          <a:ext cx="1657350" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ThreadLocalMap</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4632325" y="2698750"/>
+          <a:ext cx="495300" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Entry</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5416550" y="2368550"/>
+          <a:ext cx="895350" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ThreadLocal</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="2952750"/>
+          <a:ext cx="447675" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>TSO</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1450975" y="2946400"/>
+          <a:ext cx="914400" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Thread</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>62230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>113030</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2371725" y="2595880"/>
+          <a:ext cx="250825" cy="231775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>113030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2352675" y="2827655"/>
+          <a:ext cx="269875" cy="225425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="2805430"/>
+          <a:ext cx="346075" cy="31750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5114925" y="2506980"/>
+          <a:ext cx="301625" cy="327025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14605</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5127625" y="2837180"/>
+          <a:ext cx="273050" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1520,10 +2967,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1578,23 +3025,673 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" t="s">
+        <v>146</v>
+      </c>
+      <c r="H43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+      <c r="G44" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45" t="s">
+        <v>153</v>
+      </c>
+      <c r="H45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" t="s">
+        <v>156</v>
+      </c>
+      <c r="G46" t="s">
+        <v>157</v>
+      </c>
+      <c r="H46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" t="s">
+        <v>163</v>
+      </c>
+      <c r="H48" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/多线程/多线程基础.xlsx
+++ b/多线程/多线程基础.xlsx
@@ -4,24 +4,764 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7935" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="第一章 走进线程" sheetId="1" r:id="rId1"/>
-    <sheet name="第二章 多线程目标与挑战" sheetId="2" r:id="rId2"/>
-    <sheet name="第三章 线程同步机制" sheetId="3" r:id="rId3"/>
-    <sheet name="第五章 线程间协作" sheetId="4" r:id="rId4"/>
-    <sheet name="第六章 保障线程安全的设计技术" sheetId="5" r:id="rId5"/>
-    <sheet name="第七章 线程的活性故障" sheetId="6" r:id="rId6"/>
-    <sheet name="第八章 线程管理" sheetId="7" r:id="rId7"/>
-    <sheet name="第九章 Java异步编程" sheetId="8" r:id="rId8"/>
+    <sheet name="ThreadLocal" sheetId="9" r:id="rId1"/>
+    <sheet name="ConcurrentHashMap" sheetId="10" r:id="rId2"/>
+    <sheet name="volatile" sheetId="11" r:id="rId3"/>
+    <sheet name="CyclicBarrierCountDownLatch" sheetId="12" r:id="rId4"/>
+    <sheet name="ThreadPool" sheetId="13" r:id="rId5"/>
+    <sheet name="锁" sheetId="14" r:id="rId6"/>
+    <sheet name="第一章 走进线程" sheetId="1" r:id="rId7"/>
+    <sheet name="第二章 多线程目标与挑战" sheetId="2" r:id="rId8"/>
+    <sheet name="第三章 线程同步机制" sheetId="3" r:id="rId9"/>
+    <sheet name="第五章 线程间协作" sheetId="4" r:id="rId10"/>
+    <sheet name="第六章 保障线程安全的设计技术" sheetId="5" r:id="rId11"/>
+    <sheet name="第七章 线程的活性故障" sheetId="6" r:id="rId12"/>
+    <sheet name="第八章 线程管理" sheetId="7" r:id="rId13"/>
+    <sheet name="第九章 Java异步编程" sheetId="8" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="305">
+  <si>
+    <t>ThreadLocal</t>
+  </si>
+  <si>
+    <t>ThreadLocal只在当前线程中可用，其他线程不可用</t>
+  </si>
+  <si>
+    <t>t1线程通过ThreadLocal赋值，并且成功获取ThreadLocal的值</t>
+  </si>
+  <si>
+    <t>t2线程无法取到t1线程给ThreadLocal赋的值</t>
+  </si>
+  <si>
+    <r>
+      <t>每个线程中都有一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ThreadLocalMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据结构，当执行set方法时，其值是保存在当前线程的threadLocals变量中，当执行set方法中，是从当前线程的threadLocals变量获取。</t>
+    </r>
+  </si>
+  <si>
+    <t>所以在线程1中set的值，对线程2来说是摸不到的，而且在线程2中重新set的话，也不会影响到线程1中的值，保证了线程之间不会相互干扰。</t>
+  </si>
+  <si>
+    <t>ThreadLoalMap</t>
+  </si>
+  <si>
+    <t>类似HashMap的数据结构，但是在ThreadLocal中，并没实现Map接口。</t>
+  </si>
+  <si>
+    <t>在ThreadLoalMap中，也是初始化一个大小16的Entry数组，Entry对象用来保存每一个key-value键值对，只不过这里的key永远都是ThreadLocal对象</t>
+  </si>
+  <si>
+    <t>通过ThreadLocal对象的set方法，结果把ThreadLocal对象自己当做key，放进了ThreadLoalMap中。</t>
+  </si>
+  <si>
+    <t>这里需要注意的是，ThreadLoalMap的Entry是继承WeakReference，和HashMap很大的区别是，Entry中没有next字段，所以就不存在链表的情况了。</t>
+  </si>
+  <si>
+    <t>ThreadLoalMap没有链表结构，那发生hash冲突了怎么办？</t>
+  </si>
+  <si>
+    <t>每个ThreadLocal对象都有一个hash值threadLocalHashCode，每初始化一个ThreadLocal对象，hash值就增加一个固定的大小</t>
+  </si>
+  <si>
+    <t>在插入过程中，根据ThreadLocal对象的hash值，定位到table中的位置i，过程如下：</t>
+  </si>
+  <si>
+    <t>1、如果当前位置是空的，那么正好，就初始化一个Entry对象放在位置i上；</t>
+  </si>
+  <si>
+    <t>2、不巧，位置i已经有Entry对象了，如果这个Entry对象的key正好是即将设置的key，那么重新设置Entry中的value；</t>
+  </si>
+  <si>
+    <t>3、很不巧，位置i的Entry对象，和即将设置的key没关系，那么只能找下一个空位置；</t>
+  </si>
+  <si>
+    <t>这样的话，在get的时候，也会根据ThreadLocal对象的hash值，定位到table中的位置，然后判断该位置Entry对象中的key是否和get的key一致，如果不一致，就判断下一个位置</t>
+  </si>
+  <si>
+    <t>可以发现，set和get如果冲突严重的话，效率很低，因为ThreadLoalMap是Thread的一个属性，所以即使在自己的代码中控制了设置的元素个数，但还是不能控制其它代码的行为。</t>
+  </si>
+  <si>
+    <t>ThreadLocal可能导致内存泄漏，为什么？</t>
+  </si>
+  <si>
+    <r>
+      <t>当使用ThreadLocal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保存一个value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时，会在ThreadLocalMap中的数组</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>插入一个Entry对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，按理说</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key-value都应该以强引用保存在Entry对象中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但在ThreadLocalMap的实现中，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key被保存到了WeakReference对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这就导致了一个问题，ThreadLocal在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没有外部强引用时，发生GC时会被回收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，如果创建ThreadLocal的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程一直持续运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，那么这个Entry对象中的value就有可能一直得不到回收，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发生内存泄露</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>ThreadLocal如何避免内存泄露</t>
+  </si>
+  <si>
+    <r>
+      <t>在调用ThreadLocal的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get()、set()可能会清除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ThreadLocalMap中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key为null的Entry对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这样对应的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value就没有GC Roots可达了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下次GC的时候就可以被回收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，当然如果调用remove方法，肯定会删除对应的Entry对象。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果使用ThreadLocal的set方法之后，没有显示的调用remove方法，就有可能发生内存泄露，所以养成良好的编程习惯十分重要，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用完ThreadLocal之后，记得调用remove方法</t>
+    </r>
+  </si>
+  <si>
+    <t>ConcurrentHashMap有哪些构造函数？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ConcurrentHashMap() </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//无参构造函数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ConcurrentHashMap(int initialCapacity) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//可传初始容器大小的构造函数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ConcurrentHashMap(Map&lt;? extends K, ? extends V&gt; m) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//可传入map的构造函数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ConcurrentHashMap(int initialCapacity, float loadFactor) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//可设置阈值和初始容量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ConcurrentHashMap(int initialCapacity, float loadFactor, int concurrencyLevel) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//可设置初始容量和阈值和并发级别</t>
+    </r>
+  </si>
+  <si>
+    <t>ConcurrentHashMap使用什么技术来保证线程安全？</t>
+  </si>
+  <si>
+    <t>jdk1.7：Segment+HashEntry来进行实现的；</t>
+  </si>
+  <si>
+    <r>
+      <t>jdk1.8：放弃了Segment臃肿的设计，采用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Node+CAS+Synchronized来保证线程安全</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+  </si>
+  <si>
+    <t>ConcurrentHashMap的get方法是否要加锁，为什么？</t>
+  </si>
+  <si>
+    <t>不需要，get方法采用了unsafe方法，来保证线程安全。</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap迭代器是强一致性还是弱一致性？HashMap呢？</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap弱一致性，hashmap强一直性。</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap可以支持在迭代过程中，向map添加新元素，而HashMap则抛出了ConcurrentModificationException</t>
+  </si>
+  <si>
+    <t>因为HashMap包含一个修改计数器，当你调用他的next()方法来获取下一个元素时，迭代器将会用到这个计数器</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap1.7和1.8的区别：</t>
+  </si>
+  <si>
+    <t>jdk1.8的实现降低锁的粒度，jdk1.7锁的粒度是基于Segment的，包含多个HashEntry，而jdk1.8锁的粒度就是Node</t>
+  </si>
+  <si>
+    <t>数据结构：jdk1.7 Segment+HashEntry；jdk1.8 数组+链表+红黑树+CAS+synchronized</t>
+  </si>
+  <si>
+    <t>为啥 ConcurrentHashMap 读操作不需要加锁？</t>
+  </si>
+  <si>
+    <t>get操作全程不需要加锁是因为Node的成员val是用volatile修饰的</t>
+  </si>
+  <si>
+    <r>
+      <t>和数组用volatile修饰没有关系。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数组用volatile修饰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主要是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保证在数组扩容的时候保证可见性。</t>
+    </r>
+  </si>
+  <si>
+    <t>你对volatile关键字的理解</t>
+  </si>
+  <si>
+    <t>保证了不同线程对该变量操作的内存可见性。</t>
+  </si>
+  <si>
+    <t>禁止指令重排序。</t>
+  </si>
+  <si>
+    <t>synchronzied关键词的使用</t>
+  </si>
+  <si>
+    <t>synchronized包裹代码块：</t>
+  </si>
+  <si>
+    <t>I . synchronized(对象){}</t>
+  </si>
+  <si>
+    <t>II . synchronized(类名.class){}</t>
+  </si>
+  <si>
+    <t>III. synchronized(this){}</t>
+  </si>
+  <si>
+    <t>synchronized修饰方法：</t>
+  </si>
+  <si>
+    <t>I .public synchronized void memberMethod(){};</t>
+  </si>
+  <si>
+    <t>II.public static synchronized void staticMethod(){};</t>
+  </si>
+  <si>
+    <t>ReentrantLock和synchronized使用的场景是什么，机制有何不同</t>
+  </si>
+  <si>
+    <t>在资源竞争不是很激烈的情况下，偶尔会有同步的情形下，synchronized是很合适的。原因在于，编译程序通常会尽可能的进行优化</t>
+  </si>
+  <si>
+    <t>ReentrantLock 类实现了 Lock ，它拥有与 synchronized 相同的并发性和内存语义，但是添加了类似轮询锁、定时锁等候和可中断锁等候的一些特性。此外，它还提供了在激烈争用情况下更佳的性能。</t>
+  </si>
+  <si>
+    <t>其实ReentrantLock是一个可重入的互斥锁，重入锁是一种递归无阻塞的同步机制。ReentrantLock由最近成功获取锁，还没有释放的线程所拥有，</t>
+  </si>
+  <si>
+    <t>当锁被另一个线程拥有时，调用lock的线程可以成功获取锁。如果锁已经被当前线程拥有，当前线程会立即返回</t>
+  </si>
+  <si>
+    <t>CyclicBarrier是什么？</t>
+  </si>
+  <si>
+    <t>多个线程阻塞，只有全部线程调用了CyclicBarrier的await方法，所有阻塞线程继续执行</t>
+  </si>
+  <si>
+    <t>CyclicBarrier使用场景：多台机器同时去执行同一个任务的时候</t>
+  </si>
+  <si>
+    <t>说白了是做加法，加到固定值时，被阻塞的线程被唤醒；</t>
+  </si>
+  <si>
+    <t>CountDownLatch</t>
+  </si>
+  <si>
+    <t>经常用于监听某些初始化操作，等初始化执行完后，通知主线程继续工作</t>
+  </si>
+  <si>
+    <t>场景</t>
+  </si>
+  <si>
+    <t>比如在创建zkclient实例后，马上调用zk的API方法，但实际ZKclient还没有链接成功，这个时候调用方法会报错</t>
+  </si>
+  <si>
+    <t>此时可以通过CountDownLatch来监控zk的实例</t>
+  </si>
+  <si>
+    <t>一个线程等待，N个线程给他发出通知，然后那一个线程继续执行，一个await()等待，多个countDown-锁存起的数量</t>
+  </si>
+  <si>
+    <t>说白了是做减法，减到0时，被阻塞的线程被唤醒；</t>
+  </si>
+  <si>
+    <t>CyclicBarrier和CountDownLatch的区别</t>
+  </si>
+  <si>
+    <t>CyclicBarrier多个线程阻塞，只有全部线程调用了CyclicBarrier的await方法，所有阻塞线程继续执行</t>
+  </si>
+  <si>
+    <t>CountDownLatch线程运行到某个点后，计数值-1，减到0时，被阻塞的线程被唤醒；</t>
+  </si>
+  <si>
+    <t>CyclicBarrier只能唤醒一个任务；CountDownLatch可以唤醒多个任务；</t>
+  </si>
+  <si>
+    <t>CyccliBarrier可以重用，CountDownLatch不可重用，当计数值为0时，CountDownLatch就不可再用了。</t>
+  </si>
+  <si>
+    <t>什么是线程池：</t>
+  </si>
+  <si>
+    <t>多线程技术主要解决处理器单元内多个线程执行的问题，它可以显著减少处理器单元的闲置时间，增加处理器单元的吞吐能力</t>
+  </si>
+  <si>
+    <t>一个线程池包括以下四个基本组成部分</t>
+  </si>
+  <si>
+    <t>线程池管理器（ThreadPool）：用于创建并管理线程池，包括 创建线程池，销毁线程池，添加新任务；</t>
+  </si>
+  <si>
+    <t>工作线程（PoolWorker）：线程池中线程，在没有任务时处于等待状态，可以循环的执行任务；</t>
+  </si>
+  <si>
+    <t>任务接口（Task）：每个任务必须实现的接口，以供工作线程调度任务的执行，它主要规定了任务的入口，任务执行完后的收尾工作，任务的执行状态等；</t>
+  </si>
+  <si>
+    <t>任务队列（taskQueue）：用于存放没有处理的任务。提供一种缓冲机制。</t>
+  </si>
+  <si>
+    <t>常见线程池</t>
+  </si>
+  <si>
+    <t>newSingleThreadExecutor：单个线程的线程池，即线程池中每次只有一个线程工作，单线程串行执行任务</t>
+  </si>
+  <si>
+    <t>通俗：创建只有一个线程的线程池，且线程的存活时间是无限的；当该线程正繁忙时，对于新任务会进入阻塞队列中(无界的阻塞队列)</t>
+  </si>
+  <si>
+    <t>适用：一个任务一个任务执行的场景</t>
+  </si>
+  <si>
+    <t>newFixedThreadExecutor(n)：固定数量的线程池，每提交一个任务就是一个线程，直到达到线程池的最大数量，然后后面进入等待队列直到前面的任务完成才继续执行</t>
+  </si>
+  <si>
+    <t>底层：返回ThreadPoolExecutor实例</t>
+  </si>
+  <si>
+    <t>通俗：创建可容纳固定数量线程的池子，每隔线程的存活时间是无限的，当池子满了就不在添加线程了；如果池中的所有线程均在繁忙状态，对于新任务会进入阻塞队列中(无界的阻塞队列)</t>
+  </si>
+  <si>
+    <t>适用：执行长期的任务，性能好很多</t>
+  </si>
+  <si>
+    <t>newCacheThreadExecutor（推荐使用）可缓存线程池，当线程池大小超过了处理任务所需的线程，那么就会回收部分空闲（一般是60秒无执行）的线程，当有任务来时，又智能的添加新线程来执行。</t>
+  </si>
+  <si>
+    <t>通俗：当有新任务到来，则插入到SynchronousQueue中，由于SynchronousQueue是同步队列，因此会在池中寻找可用线程来执行，若有可用线程则执行，</t>
+  </si>
+  <si>
+    <t>若没有可用线程则创建一个线程来执行该任务；若池中线程空闲时间超过指定大小，则该线程会被销毁。</t>
+  </si>
+  <si>
+    <t>适用：执行很多短期异步的小程序或者负载较轻的服务器</t>
+  </si>
+  <si>
+    <t>newScheduleThreadExecutor大小无限制的线程池，支持定时和周期性的执行线程</t>
+  </si>
+  <si>
+    <t>通俗：创建一个固定大小的线程池，线程池内线程存活时间无限制，线程池可以支持定时及周期性任务执行，如果所有线程均处于繁忙状态，对于新任务会进入DelayedWorkQueue队列中，这是一种按照超时时间排序的队列结构</t>
+  </si>
+  <si>
+    <t>适用：周期性执行任务的场景</t>
+  </si>
+  <si>
+    <t>线程池有哪些重要的参数？</t>
+  </si>
+  <si>
+    <t>核心线程数</t>
+  </si>
+  <si>
+    <t>最大线程数</t>
+  </si>
+  <si>
+    <t>线程空闲时间</t>
+  </si>
+  <si>
+    <t>时间单位</t>
+  </si>
+  <si>
+    <t>阻塞队列大小：queueCapacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任务拒绝处理器 ：rejectedExceptionHandler </t>
+  </si>
+  <si>
+    <t>在Java中Executor和Executors的区别</t>
+  </si>
+  <si>
+    <t>Executors是一个类， Executors类提供了若干个静态方法，用于生成不同类型的线程池</t>
+  </si>
+  <si>
+    <t>Executor是程池的顶级接口</t>
+  </si>
+  <si>
+    <t>线程池的技术原理是什么</t>
+  </si>
+  <si>
+    <t>预先启动一些线程，线程无限循环从任务队列中获取一个任务进行执行，直到线程池被关闭。如果某个线程因为执行某个任务发生异常而终止，那么重新创建一个新的线程而已。如此反复。</t>
+  </si>
+  <si>
+    <t>java多线程有哪些常见的锁，各自用法是什么？</t>
+  </si>
   <si>
     <t>线程两种创建方式的区别</t>
   </si>
@@ -359,9 +1099,6 @@
     <t>InterruptedException</t>
   </si>
   <si>
-    <t>ThreadLocal</t>
-  </si>
-  <si>
     <t>线程持有对象的一个代理</t>
   </si>
   <si>
@@ -572,15 +1309,9 @@
     <t>int corePoolSize</t>
   </si>
   <si>
-    <t>核心线程数</t>
-  </si>
-  <si>
     <t>int maximumPoolSize</t>
   </si>
   <si>
-    <t>最大线程数</t>
-  </si>
-  <si>
     <t>long keepAliveTime</t>
   </si>
   <si>
@@ -588,9 +1319,6 @@
   </si>
   <si>
     <t>TimeUnit unit</t>
-  </si>
-  <si>
-    <t>时间单位</t>
   </si>
   <si>
     <t>BlockingQueue workQueue</t>
@@ -616,12 +1344,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,8 +1358,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,25 +1419,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -677,66 +1434,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,9 +1448,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,10 +1495,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -783,7 +1519,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,7 +1543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,7 +1555,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,19 +1609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,19 +1621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,31 +1633,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,31 +1651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,13 +1675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,7 +1693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,11 +1728,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,17 +1791,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,49 +1810,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1092,138 +1828,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1286,6 +2025,53 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="4505325"/>
+          <a:ext cx="3733800" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2620,6 +3406,1471 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" t="s">
+        <v>253</v>
+      </c>
+      <c r="G42" t="s">
+        <v>254</v>
+      </c>
+      <c r="H42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" t="s">
+        <v>257</v>
+      </c>
+      <c r="G43" t="s">
+        <v>258</v>
+      </c>
+      <c r="H43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" t="s">
+        <v>261</v>
+      </c>
+      <c r="G44" t="s">
+        <v>262</v>
+      </c>
+      <c r="H44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D45" t="s">
+        <v>264</v>
+      </c>
+      <c r="G45" t="s">
+        <v>265</v>
+      </c>
+      <c r="H45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46" t="s">
+        <v>268</v>
+      </c>
+      <c r="G46" t="s">
+        <v>269</v>
+      </c>
+      <c r="H46" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" t="s">
+        <v>270</v>
+      </c>
+      <c r="D47" t="s">
+        <v>271</v>
+      </c>
+      <c r="G47" t="s">
+        <v>272</v>
+      </c>
+      <c r="H47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D48" t="s">
+        <v>274</v>
+      </c>
+      <c r="G48" t="s">
+        <v>275</v>
+      </c>
+      <c r="H48" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2630,105 +4881,105 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2737,7 +4988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B18"/>
@@ -2753,74 +5004,74 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2829,7 +5080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B27"/>
@@ -2842,856 +5093,124 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H58"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42" t="s">
-        <v>142</v>
-      </c>
-      <c r="H42" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" t="s">
-        <v>145</v>
-      </c>
-      <c r="G43" t="s">
-        <v>146</v>
-      </c>
-      <c r="H43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" t="s">
-        <v>149</v>
-      </c>
-      <c r="G44" t="s">
-        <v>150</v>
-      </c>
-      <c r="H44" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" t="s">
-        <v>152</v>
-      </c>
-      <c r="G45" t="s">
-        <v>153</v>
-      </c>
-      <c r="H45" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" t="s">
-        <v>156</v>
-      </c>
-      <c r="G46" t="s">
-        <v>157</v>
-      </c>
-      <c r="H46" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" t="s">
-        <v>158</v>
-      </c>
-      <c r="D47" t="s">
-        <v>159</v>
-      </c>
-      <c r="G47" t="s">
-        <v>160</v>
-      </c>
-      <c r="H47" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" t="s">
-        <v>161</v>
-      </c>
-      <c r="D48" t="s">
-        <v>162</v>
-      </c>
-      <c r="G48" t="s">
-        <v>163</v>
-      </c>
-      <c r="H48" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
-  <cols>
-    <col min="4" max="4" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5">
-      <c r="C3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5">
-      <c r="C4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5">
-      <c r="C5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="C6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="C8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/多线程/多线程基础.xlsx
+++ b/多线程/多线程基础.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="5"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ThreadLocal" sheetId="9" r:id="rId1"/>
     <sheet name="ConcurrentHashMap" sheetId="10" r:id="rId2"/>
-    <sheet name="volatile" sheetId="11" r:id="rId3"/>
-    <sheet name="CyclicBarrierCountDownLatch" sheetId="12" r:id="rId4"/>
+    <sheet name="volatile,sync" sheetId="11" r:id="rId3"/>
+    <sheet name="CyclicBarrier,CountDownLatch" sheetId="12" r:id="rId4"/>
     <sheet name="ThreadPool" sheetId="13" r:id="rId5"/>
     <sheet name="锁" sheetId="14" r:id="rId6"/>
     <sheet name="第一章 走进线程" sheetId="1" r:id="rId7"/>
@@ -27,12 +27,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="310">
   <si>
     <t>ThreadLocal</t>
   </si>
   <si>
-    <t>ThreadLocal只在当前线程中可用，其他线程不可用</t>
+    <r>
+      <t>ThreadLocal的确是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据的隔离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，ThreadLocal只在当前线程中可用，其他线程不可用</t>
+    </r>
   </si>
   <si>
     <t>t1线程通过ThreadLocal赋值，并且成功获取ThreadLocal的值</t>
@@ -41,6 +64,9 @@
     <t>t2线程无法取到t1线程给ThreadLocal赋的值</t>
   </si>
   <si>
+    <t>ThreadLocal如何实现数据隔离</t>
+  </si>
+  <si>
     <r>
       <t>每个线程中都有一个</t>
     </r>
@@ -63,8 +89,14 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>数据结构，当执行set方法时，其值是保存在当前线程的threadLocals变量中，当执行set方法中，是从当前线程的threadLocals变量获取。</t>
-    </r>
+      <t>数据结构，</t>
+    </r>
+  </si>
+  <si>
+    <t>当执行set方法时，其值是保存在当前线程的threadLocals变量中，</t>
+  </si>
+  <si>
+    <t>当执行get方法中，是从当前线程的threadLocals变量获取。</t>
   </si>
   <si>
     <t>所以在线程1中set的值，对线程2来说是摸不到的，而且在线程2中重新set的话，也不会影响到线程1中的值，保证了线程之间不会相互干扰。</t>
@@ -73,34 +105,240 @@
     <t>ThreadLoalMap</t>
   </si>
   <si>
-    <t>类似HashMap的数据结构，但是在ThreadLocal中，并没实现Map接口。</t>
-  </si>
-  <si>
-    <t>在ThreadLoalMap中，也是初始化一个大小16的Entry数组，Entry对象用来保存每一个key-value键值对，只不过这里的key永远都是ThreadLocal对象</t>
-  </si>
-  <si>
-    <t>通过ThreadLocal对象的set方法，结果把ThreadLocal对象自己当做key，放进了ThreadLoalMap中。</t>
-  </si>
-  <si>
-    <t>这里需要注意的是，ThreadLoalMap的Entry是继承WeakReference，和HashMap很大的区别是，Entry中没有next字段，所以就不存在链表的情况了。</t>
+    <r>
+      <t>类似HashMap的数据结构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但是在ThreadLocal中，并没实现Map接口。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在ThreadLoalMap中，也是初始化一个大小16的Entry数组，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entry对象用来保存每一个key-value键值对，只不过这里的key永远都是ThreadLocal对象</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过ThreadLocal对象的set方法，结果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>把ThreadLocal对象自己当做key，放进了ThreadLoalMap中。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这里需要注意的是，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ThreadLoalMap的Entry是继承WeakReference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，和HashMap很大的区别是，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entry中没有next字段，所以就不存在链表的情况了。</t>
+    </r>
   </si>
   <si>
     <t>ThreadLoalMap没有链表结构，那发生hash冲突了怎么办？</t>
   </si>
   <si>
-    <t>每个ThreadLocal对象都有一个hash值threadLocalHashCode，每初始化一个ThreadLocal对象，hash值就增加一个固定的大小</t>
-  </si>
-  <si>
-    <t>在插入过程中，根据ThreadLocal对象的hash值，定位到table中的位置i，过程如下：</t>
+    <r>
+      <t>每个ThreadLocal对象</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>都有一个hash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值threadLocalHashCode，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每初始化一个ThreadLocal对象，hash值就增加一个固定的大小</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在插入过程中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，根据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ThreadLocal对象的hash值，定位到table中的位置i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，过程如下：</t>
+    </r>
   </si>
   <si>
     <t>1、如果当前位置是空的，那么正好，就初始化一个Entry对象放在位置i上；</t>
   </si>
   <si>
-    <t>2、不巧，位置i已经有Entry对象了，如果这个Entry对象的key正好是即将设置的key，那么重新设置Entry中的value；</t>
-  </si>
-  <si>
-    <t>3、很不巧，位置i的Entry对象，和即将设置的key没关系，那么只能找下一个空位置；</t>
+    <r>
+      <t>2、不巧，位置i已经有Entry对象了，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果这个Entry对象的key正好是即将设置的key，那么重新设置Entry中的value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3、很不巧，位置i的Entry对象，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和即将设置的key没关系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>那么只能找下一个空位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
   </si>
   <si>
     <t>这样的话，在get的时候，也会根据ThreadLocal对象的hash值，定位到table中的位置，然后判断该位置Entry对象中的key是否和get的key一致，如果不一致，就判断下一个位置</t>
@@ -202,6 +440,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这就导致了一个问题，ThreadLocal在</t>
     </r>
     <r>
@@ -362,6 +607,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果使用ThreadLocal的set方法之后，没有显示的调用remove方法，就有可能发生内存泄露，所以养成良好的编程习惯十分重要，</t>
     </r>
     <r>
@@ -381,6 +633,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">ConcurrentHashMap() </t>
     </r>
     <r>
@@ -397,6 +656,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">ConcurrentHashMap(int initialCapacity) </t>
     </r>
     <r>
@@ -413,6 +679,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">ConcurrentHashMap(Map&lt;? extends K, ? extends V&gt; m) </t>
     </r>
     <r>
@@ -429,6 +702,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">ConcurrentHashMap(int initialCapacity, float loadFactor) </t>
     </r>
     <r>
@@ -445,6 +725,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">ConcurrentHashMap(int initialCapacity, float loadFactor, int concurrencyLevel) </t>
     </r>
     <r>
@@ -478,7 +765,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Node+CAS+Synchronized来保证线程安全</t>
+      <t>Node（数组+链表+红黑树）+CAS+Synchronized来保证线程安全</t>
     </r>
     <r>
       <rPr>
@@ -495,19 +782,80 @@
     <t>ConcurrentHashMap的get方法是否要加锁，为什么？</t>
   </si>
   <si>
-    <t>不需要，get方法采用了unsafe方法，来保证线程安全。</t>
+    <t>不需要，get方法采用了unsafe方法（native方法C写得），来保证线程安全。</t>
   </si>
   <si>
     <t>ConcurrentHashMap迭代器是强一致性还是弱一致性？HashMap呢？</t>
   </si>
   <si>
+    <t>强一致：更新完的节点所有线程都能访问到。弱一致：更新完的节点部分可以访问到</t>
+  </si>
+  <si>
     <t>ConcurrentHashMap弱一致性，hashmap强一直性。</t>
   </si>
   <si>
     <t>ConcurrentHashMap可以支持在迭代过程中，向map添加新元素，而HashMap则抛出了ConcurrentModificationException</t>
   </si>
   <si>
-    <t>因为HashMap包含一个修改计数器，当你调用他的next()方法来获取下一个元素时，迭代器将会用到这个计数器</t>
+    <t>因为在迭代的时候修改HashMap对象结构或者元素数量都会使迭代器触发这个异常</t>
+  </si>
+  <si>
+    <r>
+      <t>HashMap包含一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>修改计数器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，当你调用他的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>next()方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来获取下一个元素时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>迭代器将会用到这个计数器</t>
+    </r>
   </si>
   <si>
     <t>ConcurrentHashMap1.7和1.8的区别：</t>
@@ -526,6 +874,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>和数组用volatile修饰没有关系。</t>
     </r>
     <r>
@@ -1344,10 +1699,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1366,45 +1721,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1425,9 +1767,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1440,47 +1789,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1502,9 +1819,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1519,55 +1874,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,7 +1898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1597,7 +1910,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1609,31 +1994,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,37 +2024,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,13 +2048,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,6 +2065,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1743,50 +2137,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1816,10 +2171,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1828,141 +2183,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2030,13 +2384,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2054,7 +2408,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="771525" y="4505325"/>
+          <a:off x="771525" y="5048250"/>
           <a:ext cx="3733800" cy="1524000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3406,10 +3760,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3418,12 +3772,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3437,109 +3791,126 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
+    <row r="8" spans="2:3">
+      <c r="B8" s="2"/>
+      <c r="C8" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="2"/>
+      <c r="C9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+    <row r="22" spans="3:3">
+      <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+    <row r="23" spans="3:3">
+      <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="2" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3562,257 +3933,257 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3839,280 +4210,280 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D42" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G42" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H42" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D43" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G43" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H43" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D44" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G44" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H44" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D45" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G45" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H45" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D46" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G46" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H46" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D47" t="s">
+        <v>276</v>
+      </c>
+      <c r="G47" t="s">
+        <v>277</v>
+      </c>
+      <c r="H47" t="s">
         <v>271</v>
-      </c>
-      <c r="G47" t="s">
-        <v>272</v>
-      </c>
-      <c r="H47" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D48" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H48" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4135,42 +4506,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4195,68 +4566,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="3:5">
       <c r="C3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="3:5">
       <c r="C5" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E5" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E8" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -4284,10 +4655,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4297,107 +4668,117 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="2" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4411,8 +4792,8 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -4422,17 +4803,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -4440,68 +4821,68 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:2">
@@ -4519,7 +4900,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -4529,22 +4910,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -4552,63 +4933,63 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="2:2">
@@ -4626,7 +5007,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A1" sqref="A1:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -4636,12 +5017,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -4649,168 +5030,168 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="2:2">
@@ -4827,7 +5208,7 @@
   <sheetPr/>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -4838,7 +5219,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -4881,105 +5262,105 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5004,74 +5385,74 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5093,120 +5474,120 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/多线程/多线程基础.xlsx
+++ b/多线程/多线程基础.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="847" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ThreadLocal" sheetId="9" r:id="rId1"/>
@@ -870,7 +870,20 @@
     <t>为啥 ConcurrentHashMap 读操作不需要加锁？</t>
   </si>
   <si>
-    <t>get操作全程不需要加锁是因为Node的成员val是用volatile修饰的</t>
+    <r>
+      <t>get操作全程不需要加锁是因为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Node的成员val是用volatile修饰的</t>
+    </r>
   </si>
   <si>
     <r>
@@ -959,7 +972,62 @@
     <t>ReentrantLock 类实现了 Lock ，它拥有与 synchronized 相同的并发性和内存语义，但是添加了类似轮询锁、定时锁等候和可中断锁等候的一些特性。此外，它还提供了在激烈争用情况下更佳的性能。</t>
   </si>
   <si>
-    <t>其实ReentrantLock是一个可重入的互斥锁，重入锁是一种递归无阻塞的同步机制。ReentrantLock由最近成功获取锁，还没有释放的线程所拥有，</t>
+    <r>
+      <t>其实ReentrantLock是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可重入的互斥锁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，重入锁是一种</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>递归无阻塞的同步机制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ReentrantLock由最近成功获取锁，还没有释放的线程所拥有，</t>
+    </r>
   </si>
   <si>
     <t>当锁被另一个线程拥有时，调用lock的线程可以成功获取锁。如果锁已经被当前线程拥有，当前线程会立即返回</t>
@@ -968,10 +1036,88 @@
     <t>CyclicBarrier是什么？</t>
   </si>
   <si>
-    <t>多个线程阻塞，只有全部线程调用了CyclicBarrier的await方法，所有阻塞线程继续执行</t>
-  </si>
-  <si>
-    <t>CyclicBarrier使用场景：多台机器同时去执行同一个任务的时候</t>
+    <r>
+      <t>多个线程阻塞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，只有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全部线程调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了CyclicBarrier的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法，所有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阻塞线程继续执行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CyclicBarrier使用场景：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多台机器同时去执行同一个任务的时候</t>
+    </r>
   </si>
   <si>
     <t>说白了是做加法，加到固定值时，被阻塞的线程被唤醒；</t>
@@ -980,7 +1126,20 @@
     <t>CountDownLatch</t>
   </si>
   <si>
-    <t>经常用于监听某些初始化操作，等初始化执行完后，通知主线程继续工作</t>
+    <r>
+      <t>经常用于监</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>听某些初始化操作，等初始化执行完后，通知主线程继续工作</t>
+    </r>
   </si>
   <si>
     <t>场景</t>
@@ -992,7 +1151,7 @@
     <t>此时可以通过CountDownLatch来监控zk的实例</t>
   </si>
   <si>
-    <t>一个线程等待，N个线程给他发出通知，然后那一个线程继续执行，一个await()等待，多个countDown-锁存起的数量</t>
+    <t>A线程等待，N个线程给他发出通知，然后A线程继续执行，一个await()等待，多个countDown-锁存起的数量</t>
   </si>
   <si>
     <t>说白了是做减法，减到0时，被阻塞的线程被唤醒；</t>
@@ -1001,7 +1160,30 @@
     <t>CyclicBarrier和CountDownLatch的区别</t>
   </si>
   <si>
-    <t>CyclicBarrier多个线程阻塞，只有全部线程调用了CyclicBarrier的await方法，所有阻塞线程继续执行</t>
+    <r>
+      <t>CyclicBarrier</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多个线程阻塞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，只有全部线程调用了CyclicBarrier的await方法，所有阻塞线程继续执行</t>
+    </r>
   </si>
   <si>
     <t>CountDownLatch线程运行到某个点后，计数值-1，减到0时，被阻塞的线程被唤醒；</t>
@@ -1016,7 +1198,51 @@
     <t>什么是线程池：</t>
   </si>
   <si>
-    <t>多线程技术主要解决处理器单元内多个线程执行的问题，它可以显著减少处理器单元的闲置时间，增加处理器单元的吞吐能力</t>
+    <r>
+      <t>多线程技术主要解决处理器单元内</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多个线程执行的问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，它可以显著</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>减少处理器单元的闲置时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，增加处理器单元的吞吐能力</t>
+    </r>
   </si>
   <si>
     <t>一个线程池包括以下四个基本组成部分</t>
@@ -1040,7 +1266,93 @@
     <t>newSingleThreadExecutor：单个线程的线程池，即线程池中每次只有一个线程工作，单线程串行执行任务</t>
   </si>
   <si>
-    <t>通俗：创建只有一个线程的线程池，且线程的存活时间是无限的；当该线程正繁忙时，对于新任务会进入阻塞队列中(无界的阻塞队列)</t>
+    <r>
+      <t>通俗：创建</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只有一个线程的线程池</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，且线程的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存活时间是无限的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；当该</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程正繁忙时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，对于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新任务会进入阻塞队列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中(无界的阻塞队列)</t>
+    </r>
   </si>
   <si>
     <t>适用：一个任务一个任务执行的场景</t>
@@ -1052,7 +1364,104 @@
     <t>底层：返回ThreadPoolExecutor实例</t>
   </si>
   <si>
-    <t>通俗：创建可容纳固定数量线程的池子，每隔线程的存活时间是无限的，当池子满了就不在添加线程了；如果池中的所有线程均在繁忙状态，对于新任务会进入阻塞队列中(无界的阻塞队列)</t>
+    <r>
+      <t>通俗：创建可容纳</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>固定数量线程的池子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，每隔</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程的存活时间是无限的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当池子满了就不在添加线程了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；如果池中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所有线程均在繁忙状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，对于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新任务会进入阻塞队列中(无界的阻塞队列)</t>
+    </r>
   </si>
   <si>
     <t>适用：执行长期的任务，性能好很多</t>
@@ -1061,10 +1470,56 @@
     <t>newCacheThreadExecutor（推荐使用）可缓存线程池，当线程池大小超过了处理任务所需的线程，那么就会回收部分空闲（一般是60秒无执行）的线程，当有任务来时，又智能的添加新线程来执行。</t>
   </si>
   <si>
-    <t>通俗：当有新任务到来，则插入到SynchronousQueue中，由于SynchronousQueue是同步队列，因此会在池中寻找可用线程来执行，若有可用线程则执行，</t>
-  </si>
-  <si>
-    <t>若没有可用线程则创建一个线程来执行该任务；若池中线程空闲时间超过指定大小，则该线程会被销毁。</t>
+    <r>
+      <t>通俗：当有新任务到来，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>则插入到SynchronousQueue中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，由于SynchronousQueue是同步队列，因此会在池中寻找可用线程来执行，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>若有可用线程则执行，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>若没有可用线程则创建一个线程来执行该任务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；若池中线程空闲时间超过指定大小，则该线程会被销毁。</t>
+    </r>
   </si>
   <si>
     <t>适用：执行很多短期异步的小程序或者负载较轻的服务器</t>
@@ -3762,8 +4217,8 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -4657,8 +5112,8 @@
   <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4772,7 +5227,7 @@
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4792,8 +5247,8 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -4876,7 +5331,7 @@
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4899,8 +5354,8 @@
   <sheetPr/>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -4914,7 +5369,7 @@
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4938,7 +5393,7 @@
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4973,7 +5428,7 @@
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5006,8 +5461,8 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -5065,7 +5520,7 @@
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5085,7 +5540,7 @@
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5105,12 +5560,12 @@
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5209,7 +5664,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G14" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>

--- a/多线程/多线程基础.xlsx
+++ b/多线程/多线程基础.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="847" activeTab="3"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="847" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ThreadLocal" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="317">
   <si>
     <t>ThreadLocal</t>
   </si>
@@ -1151,7 +1151,7 @@
     <t>此时可以通过CountDownLatch来监控zk的实例</t>
   </si>
   <si>
-    <t>A线程等待，N个线程给他发出通知，然后A线程继续执行，一个await()等待，多个countDown-锁存起的数量</t>
+    <t>A线程等待，N个线程结束给他发出通知，然后A线程继续执行，一个await()等待，多个countDown-锁存起的数量</t>
   </si>
   <si>
     <t>说白了是做减法，减到0时，被阻塞的线程被唤醒；</t>
@@ -1189,7 +1189,51 @@
     <t>CountDownLatch线程运行到某个点后，计数值-1，减到0时，被阻塞的线程被唤醒；</t>
   </si>
   <si>
-    <t>CyclicBarrier只能唤醒一个任务；CountDownLatch可以唤醒多个任务；</t>
+    <r>
+      <t>CyclicBarrier只能</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>唤醒一个任务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；CountDownLatch可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>唤醒多个任务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
   </si>
   <si>
     <t>CyccliBarrier可以重用，CountDownLatch不可重用，当计数值为0时，CountDownLatch就不可再用了。</t>
@@ -1571,6 +1615,27 @@
   </si>
   <si>
     <t>java多线程有哪些常见的锁，各自用法是什么？</t>
+  </si>
+  <si>
+    <t>synchronized (同步)synchronized关键字修饰的代码相当于数据库上的互斥锁。</t>
+  </si>
+  <si>
+    <t>确保多个线程在同一时刻只能由一个线程处于方法或同步块中，确保线程对变量访问的可见和排它，获得锁的对象在代码结束后，会对锁进行释放。</t>
+  </si>
+  <si>
+    <t>ReentrantLock，意思是“可重入锁”，ReentrantLock是唯一实现了Lock接口的类，并且ReentrantLock提供了更多的方法。</t>
+  </si>
+  <si>
+    <t>分为读锁和写锁，多个读锁不互斥，读锁与写锁互斥，这是由jvm自己控制的，我们只要上好相应的锁即可。</t>
+  </si>
+  <si>
+    <t>如果你的代码只读数据，可以很多人同时读，但不能同时写，那就上读锁；</t>
+  </si>
+  <si>
+    <t>如果你的代码修改数据，只能有一个人在写，且不能同时读取，那就上写锁。</t>
+  </si>
+  <si>
+    <t>总之，读的时候上读锁，写的时候上写锁！</t>
   </si>
   <si>
     <t>线程两种创建方式的区别</t>
@@ -4388,257 +4453,257 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4665,280 +4730,280 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D42" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G42" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="H42" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D43" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="G43" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H43" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D44" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="G44" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="H44" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D45" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G45" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="H45" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D46" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G46" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="H46" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D47" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="G47" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H47" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" t="s">
+        <v>286</v>
+      </c>
+      <c r="G48" t="s">
+        <v>287</v>
+      </c>
+      <c r="H48" t="s">
         <v>278</v>
-      </c>
-      <c r="D48" t="s">
-        <v>279</v>
-      </c>
-      <c r="G48" t="s">
-        <v>280</v>
-      </c>
-      <c r="H48" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -4961,42 +5026,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5021,17 +5086,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="3:5">
       <c r="C3" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E3" t="s">
         <v>106</v>
@@ -5039,7 +5104,7 @@
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E4" t="s">
         <v>107</v>
@@ -5047,15 +5112,15 @@
     </row>
     <row r="5" spans="3:5">
       <c r="C5" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E5" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E6" t="s">
         <v>109</v>
@@ -5063,26 +5128,26 @@
     </row>
     <row r="7" spans="3:5">
       <c r="C7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E8" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5112,7 +5177,7 @@
   <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -5354,8 +5419,8 @@
   <sheetPr/>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -5438,7 +5503,7 @@
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5461,8 +5526,8 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -5661,13 +5726,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G13:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
@@ -5678,19 +5743,44 @@
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" s="2"/>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6" s="2"/>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2"/>
@@ -5717,105 +5807,105 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5840,74 +5930,74 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5929,120 +6019,120 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/多线程/多线程基础.xlsx
+++ b/多线程/多线程基础.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="847" activeTab="5"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="847" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ThreadLocal" sheetId="9" r:id="rId1"/>
@@ -13,26 +13,34 @@
     <sheet name="CyclicBarrier,CountDownLatch" sheetId="12" r:id="rId4"/>
     <sheet name="ThreadPool" sheetId="13" r:id="rId5"/>
     <sheet name="锁" sheetId="14" r:id="rId6"/>
-    <sheet name="第一章 走进线程" sheetId="1" r:id="rId7"/>
-    <sheet name="第二章 多线程目标与挑战" sheetId="2" r:id="rId8"/>
-    <sheet name="第三章 线程同步机制" sheetId="3" r:id="rId9"/>
-    <sheet name="第五章 线程间协作" sheetId="4" r:id="rId10"/>
-    <sheet name="第六章 保障线程安全的设计技术" sheetId="5" r:id="rId11"/>
-    <sheet name="第七章 线程的活性故障" sheetId="6" r:id="rId12"/>
-    <sheet name="第八章 线程管理" sheetId="7" r:id="rId13"/>
-    <sheet name="第九章 Java异步编程" sheetId="8" r:id="rId14"/>
+    <sheet name="并发容器" sheetId="15" r:id="rId7"/>
+    <sheet name="第一章 走进线程" sheetId="1" r:id="rId8"/>
+    <sheet name="第二章 多线程目标与挑战" sheetId="2" r:id="rId9"/>
+    <sheet name="第三章 线程同步机制" sheetId="3" r:id="rId10"/>
+    <sheet name="第五章 线程间协作" sheetId="4" r:id="rId11"/>
+    <sheet name="第六章 保障线程安全的设计技术" sheetId="5" r:id="rId12"/>
+    <sheet name="第七章 线程的活性故障" sheetId="6" r:id="rId13"/>
+    <sheet name="第八章 线程管理" sheetId="7" r:id="rId14"/>
+    <sheet name="第九章 Java异步编程" sheetId="8" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="331">
   <si>
     <t>ThreadLocal</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ThreadLocal的确是</t>
     </r>
     <r>
@@ -68,6 +76,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>每个线程中都有一个</t>
     </r>
     <r>
@@ -93,10 +108,56 @@
     </r>
   </si>
   <si>
-    <t>当执行set方法时，其值是保存在当前线程的threadLocals变量中，</t>
-  </si>
-  <si>
-    <t>当执行get方法中，是从当前线程的threadLocals变量获取。</t>
+    <r>
+      <t>当执行set方法时，其值是保存在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当前线程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的threadLocals变量中，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>当执行get方法中，是从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当前线程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的threadLocals变量获取。</t>
+    </r>
   </si>
   <si>
     <t>所以在线程1中set的值，对线程2来说是摸不到的，而且在线程2中重新set的话，也不会影响到线程1中的值，保证了线程之间不会相互干扰。</t>
@@ -106,6 +167,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>类似HashMap的数据结构</t>
     </r>
     <r>
@@ -121,6 +190,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在ThreadLoalMap中，也是初始化一个大小16的Entry数组，</t>
     </r>
     <r>
@@ -137,6 +213,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>通过ThreadLocal对象的set方法，结果</t>
     </r>
     <r>
@@ -153,6 +236,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这里需要注意的是，</t>
     </r>
     <r>
@@ -193,6 +283,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>每个ThreadLocal对象</t>
     </r>
     <r>
@@ -230,6 +327,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在插入过程中</t>
     </r>
     <r>
@@ -269,6 +374,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2、不巧，位置i已经有Entry对象了，</t>
     </r>
     <r>
@@ -295,6 +407,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>3、很不巧，位置i的Entry对象，</t>
     </r>
     <r>
@@ -351,6 +470,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当使用ThreadLocal</t>
     </r>
     <r>
@@ -518,6 +644,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在调用ThreadLocal的</t>
     </r>
     <r>
@@ -754,6 +887,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>jdk1.8：放弃了Segment臃肿的设计，采用</t>
     </r>
     <r>
@@ -801,6 +941,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>HashMap包含一个</t>
     </r>
     <r>
@@ -871,6 +1018,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>get操作全程不需要加锁是因为</t>
     </r>
     <r>
@@ -973,6 +1127,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>其实ReentrantLock是一个</t>
     </r>
     <r>
@@ -1037,6 +1198,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>多个线程阻塞</t>
     </r>
     <r>
@@ -1105,6 +1274,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>CyclicBarrier使用场景：</t>
     </r>
     <r>
@@ -1127,6 +1303,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>经常用于监</t>
     </r>
     <r>
@@ -1160,8 +1343,18 @@
     <t>CyclicBarrier和CountDownLatch的区别</t>
   </si>
   <si>
-    <r>
-      <t>CyclicBarrier</t>
+    <t>什么是线程池：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多线程技术主要解决处理器单元内</t>
     </r>
     <r>
       <rPr>
@@ -1172,25 +1365,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>多个线程阻塞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，只有全部线程调用了CyclicBarrier的await方法，所有阻塞线程继续执行</t>
-    </r>
-  </si>
-  <si>
-    <t>CountDownLatch线程运行到某个点后，计数值-1，减到0时，被阻塞的线程被唤醒；</t>
-  </si>
-  <si>
-    <r>
-      <t>CyclicBarrier只能</t>
+      <t>多个线程执行的问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，它可以显著</t>
     </r>
     <r>
       <rPr>
@@ -1201,17 +1386,50 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>唤醒一个任务</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>；CountDownLatch可以</t>
+      <t>减少处理器单元的闲置时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，增加处理器单元的吞吐能力</t>
+    </r>
+  </si>
+  <si>
+    <t>一个线程池包括以下四个基本组成部分</t>
+  </si>
+  <si>
+    <t>线程池管理器（ThreadPool）：用于创建并管理线程池，包括 创建线程池，销毁线程池，添加新任务；</t>
+  </si>
+  <si>
+    <t>工作线程（PoolWorker）：线程池中线程，在没有任务时处于等待状态，可以循环的执行任务；</t>
+  </si>
+  <si>
+    <t>任务接口（Task）：每个任务必须实现的接口，以供工作线程调度任务的执行，它主要规定了任务的入口，任务执行完后的收尾工作，任务的执行状态等；</t>
+  </si>
+  <si>
+    <t>任务队列（taskQueue）：用于存放没有处理的任务。提供一种缓冲机制。</t>
+  </si>
+  <si>
+    <t>常见线程池</t>
+  </si>
+  <si>
+    <t>newSingleThreadExecutor：单个线程的线程池，即线程池中每次只有一个线程工作，单线程串行执行任务</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通俗：创建</t>
     </r>
     <r>
       <rPr>
@@ -1222,28 +1440,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>唤醒多个任务</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>；</t>
-    </r>
-  </si>
-  <si>
-    <t>CyccliBarrier可以重用，CountDownLatch不可重用，当计数值为0时，CountDownLatch就不可再用了。</t>
-  </si>
-  <si>
-    <t>什么是线程池：</t>
-  </si>
-  <si>
-    <r>
-      <t>多线程技术主要解决处理器单元内</t>
+      <t>只有一个线程的线程池</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，且线程的</t>
     </r>
     <r>
       <rPr>
@@ -1254,17 +1461,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>多个线程执行的问题</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，它可以显著</t>
+      <t>存活时间是无限的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；当该</t>
     </r>
     <r>
       <rPr>
@@ -1275,43 +1482,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>减少处理器单元的闲置时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，增加处理器单元的吞吐能力</t>
-    </r>
-  </si>
-  <si>
-    <t>一个线程池包括以下四个基本组成部分</t>
-  </si>
-  <si>
-    <t>线程池管理器（ThreadPool）：用于创建并管理线程池，包括 创建线程池，销毁线程池，添加新任务；</t>
-  </si>
-  <si>
-    <t>工作线程（PoolWorker）：线程池中线程，在没有任务时处于等待状态，可以循环的执行任务；</t>
-  </si>
-  <si>
-    <t>任务接口（Task）：每个任务必须实现的接口，以供工作线程调度任务的执行，它主要规定了任务的入口，任务执行完后的收尾工作，任务的执行状态等；</t>
-  </si>
-  <si>
-    <t>任务队列（taskQueue）：用于存放没有处理的任务。提供一种缓冲机制。</t>
-  </si>
-  <si>
-    <t>常见线程池</t>
-  </si>
-  <si>
-    <t>newSingleThreadExecutor：单个线程的线程池，即线程池中每次只有一个线程工作，单线程串行执行任务</t>
-  </si>
-  <si>
-    <r>
-      <t>通俗：创建</t>
+      <t>线程正繁忙时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，对于</t>
     </r>
     <r>
       <rPr>
@@ -1322,17 +1503,38 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>只有一个线程的线程池</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，且线程的</t>
+      <t>新任务会进入阻塞队列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中(无界的阻塞队列)</t>
+    </r>
+  </si>
+  <si>
+    <t>适用：一个任务一个任务执行的场景</t>
+  </si>
+  <si>
+    <t>newFixedThreadExecutor(n)：固定数量的线程池，每提交一个任务就是一个线程，直到达到线程池的最大数量，然后后面进入等待队列直到前面的任务完成才继续执行</t>
+  </si>
+  <si>
+    <t>底层：返回ThreadPoolExecutor实例</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通俗：创建可容纳</t>
     </r>
     <r>
       <rPr>
@@ -1343,17 +1545,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>存活时间是无限的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>；当该</t>
+      <t>固定数量线程的池子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，每隔</t>
     </r>
     <r>
       <rPr>
@@ -1364,7 +1566,49 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>线程正繁忙时</t>
+      <t>线程的存活时间是无限的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当池子满了就不在添加线程了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；如果池中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所有线程均在繁忙状态</t>
     </r>
     <r>
       <rPr>
@@ -1385,31 +1629,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>新任务会进入阻塞队列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中(无界的阻塞队列)</t>
-    </r>
-  </si>
-  <si>
-    <t>适用：一个任务一个任务执行的场景</t>
-  </si>
-  <si>
-    <t>newFixedThreadExecutor(n)：固定数量的线程池，每提交一个任务就是一个线程，直到达到线程池的最大数量，然后后面进入等待队列直到前面的任务完成才继续执行</t>
-  </si>
-  <si>
-    <t>底层：返回ThreadPoolExecutor实例</t>
-  </si>
-  <si>
-    <r>
-      <t>通俗：创建可容纳</t>
+      <t>新任务会进入阻塞队列中(无界的阻塞队列)</t>
+    </r>
+  </si>
+  <si>
+    <t>适用：执行长期的任务，性能好很多</t>
+  </si>
+  <si>
+    <t>newCacheThreadExecutor（推荐使用）可缓存线程池，当线程池大小超过了处理任务所需的线程，那么就会回收部分空闲（一般是60秒无执行）的线程，当有任务来时，又智能的添加新线程来执行。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通俗：当有新任务到来，</t>
     </r>
     <r>
       <rPr>
@@ -1420,17 +1658,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>固定数量线程的池子</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，每隔</t>
+      <t>则插入到SynchronousQueue中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，由于SynchronousQueue是同步队列，因此会在池中寻找可用线程来执行，</t>
     </r>
     <r>
       <rPr>
@@ -1441,18 +1679,10 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>线程的存活时间是无限的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
+      <t>若有可用线程则执行，</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1462,17 +1692,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>当池子满了就不在添加线程了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>；如果池中的</t>
+      <t>若没有可用线程则创建一个线程来执行该任务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；若池中线程空闲时间超过指定大小，则该线程会被销毁。</t>
+    </r>
+  </si>
+  <si>
+    <t>适用：执行很多短期异步的小程序或者负载较轻的服务器</t>
+  </si>
+  <si>
+    <r>
+      <t>newScheduleThreadExecutor大小无限制的线程池，支持定时和</t>
     </r>
     <r>
       <rPr>
@@ -1483,93 +1721,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>所有线程均在繁忙状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，对于</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>新任务会进入阻塞队列中(无界的阻塞队列)</t>
-    </r>
-  </si>
-  <si>
-    <t>适用：执行长期的任务，性能好很多</t>
-  </si>
-  <si>
-    <t>newCacheThreadExecutor（推荐使用）可缓存线程池，当线程池大小超过了处理任务所需的线程，那么就会回收部分空闲（一般是60秒无执行）的线程，当有任务来时，又智能的添加新线程来执行。</t>
-  </si>
-  <si>
-    <r>
-      <t>通俗：当有新任务到来，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>则插入到SynchronousQueue中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，由于SynchronousQueue是同步队列，因此会在池中寻找可用线程来执行，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>若有可用线程则执行，</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>若没有可用线程则创建一个线程来执行该任务</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>；若池中线程空闲时间超过指定大小，则该线程会被销毁。</t>
-    </r>
-  </si>
-  <si>
-    <t>适用：执行很多短期异步的小程序或者负载较轻的服务器</t>
-  </si>
-  <si>
-    <t>newScheduleThreadExecutor大小无限制的线程池，支持定时和周期性的执行线程</t>
+      <t>周期性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的执行线程</t>
+    </r>
   </si>
   <si>
     <t>通俗：创建一个固定大小的线程池，线程池内线程存活时间无限制，线程池可以支持定时及周期性任务执行，如果所有线程均处于繁忙状态，对于新任务会进入DelayedWorkQueue队列中，这是一种按照超时时间排序的队列结构</t>
@@ -1626,18 +1789,105 @@
     <t>ReentrantLock，意思是“可重入锁”，ReentrantLock是唯一实现了Lock接口的类，并且ReentrantLock提供了更多的方法。</t>
   </si>
   <si>
-    <t>分为读锁和写锁，多个读锁不互斥，读锁与写锁互斥，这是由jvm自己控制的，我们只要上好相应的锁即可。</t>
+    <r>
+      <t>分为读锁和写锁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，多个读锁不互斥，读锁与写锁互斥，这是由jvm自己控制的，我们只要上好相应的锁即可。</t>
+    </r>
   </si>
   <si>
     <t>如果你的代码只读数据，可以很多人同时读，但不能同时写，那就上读锁；</t>
   </si>
   <si>
-    <t>如果你的代码修改数据，只能有一个人在写，且不能同时读取，那就上写锁。</t>
+    <r>
+      <t>如果你的代码修改数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，只能有一个人在写，且不能同时读取，那就上写锁。</t>
+    </r>
   </si>
   <si>
     <t>总之，读的时候上读锁，写的时候上写锁！</t>
   </si>
   <si>
+    <t>List接口的实现类</t>
+  </si>
+  <si>
+    <t>CopyOnWriteArrayList</t>
+  </si>
+  <si>
+    <t>CopyOnWriteArrayList是线程安全的ArrayList</t>
+  </si>
+  <si>
+    <t>适用于读操作远远多于写操作，并且数据量较小的情况。</t>
+  </si>
+  <si>
+    <t>CopyOnWrite容器是如何实现线程安全的？</t>
+  </si>
+  <si>
+    <t>使用volatile修饰数组引用：确保数组引用的内存可见性。</t>
+  </si>
+  <si>
+    <t>对容器修改操作进行同步：从而确保同一时刻只能有一条线程修改容器</t>
+  </si>
+  <si>
+    <t>修改时复制容器：确保所有修改操作都作用在新数组上，原本的数组在创建过后就用不变化，从而其他线程可以放心地读。</t>
+  </si>
+  <si>
+    <t>Set接口的实现类</t>
+  </si>
+  <si>
+    <t>CopyOnWriteArraySet、ConcurrentSkipListSet</t>
+  </si>
+  <si>
+    <t>CopyOnWriteArraySet是线程安全的Set，它内部包含了一个CopyOnWriteArrayList，因此本质上是由CopyOnWriteArrayList实现的。</t>
+  </si>
+  <si>
+    <t>ConcurrentSkipListSet相当于线程安全的TreeSet。它是有序的Set。它由ConcurrentSkipListMap实现。</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap：线程安全的HashMap。采用分段锁实现高效并发。</t>
+  </si>
+  <si>
+    <t>ConcurrentSkipListMap：线程安全的有序Map。使用跳表实现高效并发。</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>ConcurrentLinkedQueue：线程安全的无界队列。底层采用单链表。支持FIFO。</t>
+  </si>
+  <si>
+    <t>ConcurrentLinkedDeque：线程安全的无界双端队列。底层采用双向链表。支持FIFO和FILO。</t>
+  </si>
+  <si>
+    <t>ArrayBlockingQueue：数组实现的阻塞队列。</t>
+  </si>
+  <si>
+    <t>LinkedBlockingQueue：链表实现的阻塞队列。</t>
+  </si>
+  <si>
+    <t>LinkedBlockingDeque：双向链表实现的双端阻塞队列。</t>
+  </si>
+  <si>
     <t>线程两种创建方式的区别</t>
   </si>
   <si>
@@ -2070,9 +2320,6 @@
     <t>ArrayList</t>
   </si>
   <si>
-    <t>CopyOnWriteArrayList</t>
-  </si>
-  <si>
     <t>List</t>
   </si>
   <si>
@@ -2094,9 +2341,6 @@
     <t>ConcurrentLinkedQueue</t>
   </si>
   <si>
-    <t>Queue</t>
-  </si>
-  <si>
     <t>准实时</t>
   </si>
   <si>
@@ -2104,9 +2348,6 @@
   </si>
   <si>
     <t>ConcurrentHashMap</t>
-  </si>
-  <si>
-    <t>Map</t>
   </si>
   <si>
     <t>TreeMap</t>
@@ -2241,29 +2482,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2272,52 +2490,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2339,9 +2514,82 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2355,21 +2603,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2378,8 +2611,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2391,18 +2632,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2418,13 +2647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2442,7 +2665,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2454,31 +2797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2490,91 +2809,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2585,60 +2826,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2666,11 +2853,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2685,16 +2902,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2703,133 +2944,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2946,6 +3187,53 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2533650"/>
+          <a:ext cx="8143875" cy="2457450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4282,8 +4570,8 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -4323,13 +4611,13 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2"/>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2"/>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4441,6 +4729,141 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B59"/>
@@ -4453,257 +4876,257 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4712,7 +5135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H58"/>
@@ -4730,280 +5153,280 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="D42" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="G42" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="H42" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="D43" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="G43" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="H43" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="D44" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="G44" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="H44" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="D45" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="G45" t="s">
-        <v>277</v>
+        <v>136</v>
       </c>
       <c r="H45" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="D46" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="G46" t="s">
-        <v>281</v>
+        <v>133</v>
       </c>
       <c r="H46" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="D47" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="G47" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="H47" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="D48" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="G48" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="H48" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -5013,7 +5436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B10"/>
@@ -5026,42 +5449,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5070,7 +5493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E9"/>
@@ -5086,68 +5509,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="3:5">
       <c r="C3" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="3:5">
       <c r="C5" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="E5" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="E7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="E9" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -5156,7 +5579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -5178,7 +5601,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A26" sqref="A26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -5313,7 +5736,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A14" sqref="A14:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -5419,8 +5842,8 @@
   <sheetPr/>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -5493,24 +5916,10 @@
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>80</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
+      <c r="B18" s="2"/>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="2"/>
@@ -5518,6 +5927,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5526,8 +5936,8 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -5537,12 +5947,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -5550,168 +5960,168 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>102</v>
+      <c r="B23" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="2:2">
@@ -5728,8 +6138,8 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -5739,18 +6149,18 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -5758,28 +6168,28 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="2"/>
-      <c r="C6" t="s">
-        <v>121</v>
+      <c r="C6" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" t="s">
-        <v>123</v>
+      <c r="C8" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="2:2">
@@ -5795,6 +6205,135 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C23"/>
@@ -5807,105 +6346,105 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5914,7 +6453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B18"/>
@@ -5930,209 +6469,74 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/多线程/多线程基础.xlsx
+++ b/多线程/多线程基础.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="847" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="847" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ThreadLocal" sheetId="9" r:id="rId1"/>
@@ -109,6 +109,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当执行set方法时，其值是保存在</t>
     </r>
     <r>
@@ -135,6 +142,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当执行get方法中，是从</t>
     </r>
     <r>
@@ -1710,6 +1724,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>newScheduleThreadExecutor大小无限制的线程池，支持定时和</t>
     </r>
     <r>
@@ -1790,6 +1811,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>分为读锁和写锁</t>
     </r>
     <r>
@@ -1808,6 +1837,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果你的代码修改数据</t>
     </r>
     <r>
@@ -2484,14 +2521,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2499,15 +2528,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2515,22 +2536,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2544,7 +2557,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2558,7 +2571,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2580,8 +2593,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2595,17 +2648,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2614,13 +2658,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2635,7 +2672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2647,25 +2690,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2683,7 +2714,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2695,13 +2774,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2713,37 +2798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2755,19 +2810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2779,25 +2828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2809,7 +2846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2826,6 +2863,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2847,23 +2899,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2873,6 +2919,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2892,17 +2949,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2917,25 +2963,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2944,133 +2981,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5937,7 +5974,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>

--- a/多线程/多线程基础.xlsx
+++ b/多线程/多线程基础.xlsx
@@ -2498,8 +2498,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -2519,6 +2519,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2527,16 +2542,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2549,8 +2588,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2558,44 +2598,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2616,19 +2618,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2641,10 +2635,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2655,9 +2649,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2672,13 +2672,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2690,61 +2714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2762,7 +2732,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2774,37 +2822,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2816,43 +2852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2866,17 +2866,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2896,44 +2916,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2949,17 +2931,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2969,10 +2969,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2981,7 +2981,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2990,22 +2990,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3014,100 +3014,100 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5973,8 +5973,8 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>

--- a/多线程/多线程基础.xlsx
+++ b/多线程/多线程基础.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="847" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="847"/>
   </bookViews>
   <sheets>
     <sheet name="ThreadLocal" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="332">
   <si>
     <t>ThreadLocal</t>
   </si>
@@ -1131,6 +1131,718 @@
     <t>II.public static synchronized void staticMethod(){};</t>
   </si>
   <si>
+    <t>CyclicBarrier是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多个线程阻塞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，只有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全部线程调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了CyclicBarrier的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法，所有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阻塞线程继续执行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CyclicBarrier使用场景：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多台机器同时去执行同一个任务的时候</t>
+    </r>
+  </si>
+  <si>
+    <t>说白了是做加法，加到固定值时，被阻塞的线程被唤醒；</t>
+  </si>
+  <si>
+    <t>CountDownLatch</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>经常用于监</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>听某些初始化操作，等初始化执行完后，通知主线程继续工作</t>
+    </r>
+  </si>
+  <si>
+    <t>场景</t>
+  </si>
+  <si>
+    <t>比如在创建zkclient实例后，马上调用zk的API方法，但实际ZKclient还没有链接成功，这个时候调用方法会报错</t>
+  </si>
+  <si>
+    <t>此时可以通过CountDownLatch来监控zk的实例</t>
+  </si>
+  <si>
+    <t>A线程等待，N个线程结束给他发出通知，然后A线程继续执行，一个await()等待，多个countDown-锁存起的数量</t>
+  </si>
+  <si>
+    <t>说白了是做减法，减到0时，被阻塞的线程被唤醒；</t>
+  </si>
+  <si>
+    <t>CyclicBarrier和CountDownLatch的区别</t>
+  </si>
+  <si>
+    <t>什么是线程池：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多线程技术主要解决处理器单元内</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多个线程执行的问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，它可以显著</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>减少处理器单元的闲置时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，增加处理器单元的吞吐能力</t>
+    </r>
+  </si>
+  <si>
+    <t>一个线程池包括以下四个基本组成部分</t>
+  </si>
+  <si>
+    <t>线程池管理器（ThreadPool）：用于创建并管理线程池，包括 创建线程池，销毁线程池，添加新任务；</t>
+  </si>
+  <si>
+    <t>工作线程（PoolWorker）：线程池中线程，在没有任务时处于等待状态，可以循环的执行任务；</t>
+  </si>
+  <si>
+    <t>任务接口（Task）：每个任务必须实现的接口，以供工作线程调度任务的执行，它主要规定了任务的入口，任务执行完后的收尾工作，任务的执行状态等；</t>
+  </si>
+  <si>
+    <t>任务队列（taskQueue）：用于存放没有处理的任务。提供一种缓冲机制。</t>
+  </si>
+  <si>
+    <t>常见线程池</t>
+  </si>
+  <si>
+    <t>newSingleThreadExecutor：单个线程的线程池，即线程池中每次只有一个线程工作，单线程串行执行任务</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通俗：创建</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只有一个线程的线程池</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，且线程的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存活时间是无限的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；当该</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程正繁忙时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，对于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新任务会进入阻塞队列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中(无界的阻塞队列)</t>
+    </r>
+  </si>
+  <si>
+    <t>适用：一个任务一个任务执行的场景</t>
+  </si>
+  <si>
+    <t>newFixedThreadExecutor(n)：固定数量的线程池，每提交一个任务就是一个线程，直到达到线程池的最大数量，然后后面进入等待队列直到前面的任务完成才继续执行</t>
+  </si>
+  <si>
+    <t>底层：返回ThreadPoolExecutor实例</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通俗：创建可容纳</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>固定数量线程的池子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，每隔</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程的存活时间是无限的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当池子满了就不在添加线程了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；如果池中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所有线程均在繁忙状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，对于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新任务会进入阻塞队列中(无界的阻塞队列)</t>
+    </r>
+  </si>
+  <si>
+    <t>适用：执行长期的任务，性能好很多</t>
+  </si>
+  <si>
+    <t>newCacheThreadExecutor（推荐使用）可缓存线程池，当线程池大小超过了处理任务所需的线程，那么就会回收部分空闲（一般是60秒无执行）的线程，当有任务来时，又智能的添加新线程来执行。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通俗：当有新任务到来，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>则插入到SynchronousQueue中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，由于SynchronousQueue是同步队列，因此会在池中寻找可用线程来执行，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>若有可用线程则执行，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>若没有可用线程则创建一个线程来执行该任务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；若池中线程空闲时间超过指定大小，则该线程会被销毁。</t>
+    </r>
+  </si>
+  <si>
+    <t>适用：执行很多短期异步的小程序或者负载较轻的服务器</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>newScheduleThreadExecutor大小无限制的线程池，支持定时和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>周期性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的执行线程</t>
+    </r>
+  </si>
+  <si>
+    <t>通俗：创建一个固定大小的线程池，线程池内线程存活时间无限制，线程池可以支持定时及周期性任务执行，如果所有线程均处于繁忙状态，对于新任务会进入DelayedWorkQueue队列中，这是一种按照超时时间排序的队列结构</t>
+  </si>
+  <si>
+    <t>适用：周期性执行任务的场景</t>
+  </si>
+  <si>
+    <t>线程池有哪些重要的参数？</t>
+  </si>
+  <si>
+    <t>核心线程数</t>
+  </si>
+  <si>
+    <t>最大线程数</t>
+  </si>
+  <si>
+    <t>线程空闲时间</t>
+  </si>
+  <si>
+    <t>时间单位</t>
+  </si>
+  <si>
+    <t>阻塞队列大小：queueCapacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任务拒绝处理器 ：rejectedExceptionHandler </t>
+  </si>
+  <si>
+    <t>在Java中Executor和Executors的区别</t>
+  </si>
+  <si>
+    <t>Executors是一个类， Executors类提供了若干个静态方法，用于生成不同类型的线程池</t>
+  </si>
+  <si>
+    <t>Executor是程池的顶级接口</t>
+  </si>
+  <si>
+    <t>线程池的技术原理是什么</t>
+  </si>
+  <si>
+    <t>预先启动一些线程，线程无限循环从任务队列中获取一个任务进行执行，直到线程池被关闭。如果某个线程因为执行某个任务发生异常而终止，那么重新创建一个新的线程而已。如此反复。</t>
+  </si>
+  <si>
+    <t>ExecutorService与Executor</t>
+  </si>
+  <si>
+    <t>java多线程有哪些常见的锁，各自用法是什么？</t>
+  </si>
+  <si>
+    <t>synchronized (同步)synchronized关键字修饰的代码相当于数据库上的互斥锁。</t>
+  </si>
+  <si>
+    <t>确保多个线程在同一时刻只能由一个线程处于方法或同步块中，确保线程对变量访问的可见和排它，获得锁的对象在代码结束后，会对锁进行释放。</t>
+  </si>
+  <si>
+    <t>ReentrantLock，意思是“可重入锁”，ReentrantLock是唯一实现了Lock接口的类，并且ReentrantLock提供了更多的方法。</t>
+  </si>
+  <si>
+    <r>
+      <t>分为读锁和写锁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多个读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>锁</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不互斥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读锁与写锁互斥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这是由jvm自己控制的，我们只要上好相应的锁即可。</t>
+    </r>
+  </si>
+  <si>
+    <t>如果你的代码只读数据，可以很多人同时读，但不能同时写，那就上读锁；</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果你的代码修改数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，只能有一个人在写，且不能同时读取，那就上写锁。</t>
+    </r>
+  </si>
+  <si>
+    <t>总之，读的时候上读锁，写的时候上写锁！</t>
+  </si>
+  <si>
     <t>ReentrantLock和synchronized使用的场景是什么，机制有何不同</t>
   </si>
   <si>
@@ -1206,660 +1918,6 @@
   </si>
   <si>
     <t>当锁被另一个线程拥有时，调用lock的线程可以成功获取锁。如果锁已经被当前线程拥有，当前线程会立即返回</t>
-  </si>
-  <si>
-    <t>CyclicBarrier是什么？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>多个线程阻塞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，只有</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>全部线程调用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>了CyclicBarrier的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>await</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>方法，所有</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>阻塞线程继续执行</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CyclicBarrier使用场景：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>多台机器同时去执行同一个任务的时候</t>
-    </r>
-  </si>
-  <si>
-    <t>说白了是做加法，加到固定值时，被阻塞的线程被唤醒；</t>
-  </si>
-  <si>
-    <t>CountDownLatch</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>经常用于监</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>听某些初始化操作，等初始化执行完后，通知主线程继续工作</t>
-    </r>
-  </si>
-  <si>
-    <t>场景</t>
-  </si>
-  <si>
-    <t>比如在创建zkclient实例后，马上调用zk的API方法，但实际ZKclient还没有链接成功，这个时候调用方法会报错</t>
-  </si>
-  <si>
-    <t>此时可以通过CountDownLatch来监控zk的实例</t>
-  </si>
-  <si>
-    <t>A线程等待，N个线程结束给他发出通知，然后A线程继续执行，一个await()等待，多个countDown-锁存起的数量</t>
-  </si>
-  <si>
-    <t>说白了是做减法，减到0时，被阻塞的线程被唤醒；</t>
-  </si>
-  <si>
-    <t>CyclicBarrier和CountDownLatch的区别</t>
-  </si>
-  <si>
-    <t>什么是线程池：</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>多线程技术主要解决处理器单元内</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>多个线程执行的问题</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，它可以显著</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>减少处理器单元的闲置时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，增加处理器单元的吞吐能力</t>
-    </r>
-  </si>
-  <si>
-    <t>一个线程池包括以下四个基本组成部分</t>
-  </si>
-  <si>
-    <t>线程池管理器（ThreadPool）：用于创建并管理线程池，包括 创建线程池，销毁线程池，添加新任务；</t>
-  </si>
-  <si>
-    <t>工作线程（PoolWorker）：线程池中线程，在没有任务时处于等待状态，可以循环的执行任务；</t>
-  </si>
-  <si>
-    <t>任务接口（Task）：每个任务必须实现的接口，以供工作线程调度任务的执行，它主要规定了任务的入口，任务执行完后的收尾工作，任务的执行状态等；</t>
-  </si>
-  <si>
-    <t>任务队列（taskQueue）：用于存放没有处理的任务。提供一种缓冲机制。</t>
-  </si>
-  <si>
-    <t>常见线程池</t>
-  </si>
-  <si>
-    <t>newSingleThreadExecutor：单个线程的线程池，即线程池中每次只有一个线程工作，单线程串行执行任务</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通俗：创建</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>只有一个线程的线程池</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，且线程的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>存活时间是无限的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>；当该</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线程正繁忙时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，对于</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>新任务会进入阻塞队列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中(无界的阻塞队列)</t>
-    </r>
-  </si>
-  <si>
-    <t>适用：一个任务一个任务执行的场景</t>
-  </si>
-  <si>
-    <t>newFixedThreadExecutor(n)：固定数量的线程池，每提交一个任务就是一个线程，直到达到线程池的最大数量，然后后面进入等待队列直到前面的任务完成才继续执行</t>
-  </si>
-  <si>
-    <t>底层：返回ThreadPoolExecutor实例</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通俗：创建可容纳</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>固定数量线程的池子</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，每隔</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线程的存活时间是无限的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当池子满了就不在添加线程了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>；如果池中的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>所有线程均在繁忙状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，对于</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>新任务会进入阻塞队列中(无界的阻塞队列)</t>
-    </r>
-  </si>
-  <si>
-    <t>适用：执行长期的任务，性能好很多</t>
-  </si>
-  <si>
-    <t>newCacheThreadExecutor（推荐使用）可缓存线程池，当线程池大小超过了处理任务所需的线程，那么就会回收部分空闲（一般是60秒无执行）的线程，当有任务来时，又智能的添加新线程来执行。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通俗：当有新任务到来，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>则插入到SynchronousQueue中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，由于SynchronousQueue是同步队列，因此会在池中寻找可用线程来执行，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>若有可用线程则执行，</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>若没有可用线程则创建一个线程来执行该任务</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>；若池中线程空闲时间超过指定大小，则该线程会被销毁。</t>
-    </r>
-  </si>
-  <si>
-    <t>适用：执行很多短期异步的小程序或者负载较轻的服务器</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>newScheduleThreadExecutor大小无限制的线程池，支持定时和</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>周期性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的执行线程</t>
-    </r>
-  </si>
-  <si>
-    <t>通俗：创建一个固定大小的线程池，线程池内线程存活时间无限制，线程池可以支持定时及周期性任务执行，如果所有线程均处于繁忙状态，对于新任务会进入DelayedWorkQueue队列中，这是一种按照超时时间排序的队列结构</t>
-  </si>
-  <si>
-    <t>适用：周期性执行任务的场景</t>
-  </si>
-  <si>
-    <t>线程池有哪些重要的参数？</t>
-  </si>
-  <si>
-    <t>核心线程数</t>
-  </si>
-  <si>
-    <t>最大线程数</t>
-  </si>
-  <si>
-    <t>线程空闲时间</t>
-  </si>
-  <si>
-    <t>时间单位</t>
-  </si>
-  <si>
-    <t>阻塞队列大小：queueCapacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">任务拒绝处理器 ：rejectedExceptionHandler </t>
-  </si>
-  <si>
-    <t>在Java中Executor和Executors的区别</t>
-  </si>
-  <si>
-    <t>Executors是一个类， Executors类提供了若干个静态方法，用于生成不同类型的线程池</t>
-  </si>
-  <si>
-    <t>Executor是程池的顶级接口</t>
-  </si>
-  <si>
-    <t>线程池的技术原理是什么</t>
-  </si>
-  <si>
-    <t>预先启动一些线程，线程无限循环从任务队列中获取一个任务进行执行，直到线程池被关闭。如果某个线程因为执行某个任务发生异常而终止，那么重新创建一个新的线程而已。如此反复。</t>
-  </si>
-  <si>
-    <t>java多线程有哪些常见的锁，各自用法是什么？</t>
-  </si>
-  <si>
-    <t>synchronized (同步)synchronized关键字修饰的代码相当于数据库上的互斥锁。</t>
-  </si>
-  <si>
-    <t>确保多个线程在同一时刻只能由一个线程处于方法或同步块中，确保线程对变量访问的可见和排它，获得锁的对象在代码结束后，会对锁进行释放。</t>
-  </si>
-  <si>
-    <t>ReentrantLock，意思是“可重入锁”，ReentrantLock是唯一实现了Lock接口的类，并且ReentrantLock提供了更多的方法。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分为读锁和写锁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，多个读锁不互斥，读锁与写锁互斥，这是由jvm自己控制的，我们只要上好相应的锁即可。</t>
-    </r>
-  </si>
-  <si>
-    <t>如果你的代码只读数据，可以很多人同时读，但不能同时写，那就上读锁；</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果你的代码修改数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，只能有一个人在写，且不能同时读取，那就上写锁。</t>
-    </r>
-  </si>
-  <si>
-    <t>总之，读的时候上读锁，写的时候上写锁！</t>
   </si>
   <si>
     <t>List接口的实现类</t>
@@ -3271,6 +3329,53 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="8029575"/>
+          <a:ext cx="6543675" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4607,8 +4712,8 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -4778,120 +4883,120 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4913,257 +5018,257 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -5190,280 +5295,280 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D42" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H42" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G43" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H43" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" t="s">
+        <v>289</v>
+      </c>
+      <c r="D44" t="s">
+        <v>290</v>
+      </c>
+      <c r="G44" t="s">
+        <v>291</v>
+      </c>
+      <c r="H44" t="s">
         <v>288</v>
-      </c>
-      <c r="D44" t="s">
-        <v>289</v>
-      </c>
-      <c r="G44" t="s">
-        <v>290</v>
-      </c>
-      <c r="H44" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D45" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H45" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" t="s">
+        <v>295</v>
+      </c>
+      <c r="D46" t="s">
+        <v>296</v>
+      </c>
+      <c r="G46" t="s">
+        <v>134</v>
+      </c>
+      <c r="H46" t="s">
         <v>294</v>
-      </c>
-      <c r="D46" t="s">
-        <v>295</v>
-      </c>
-      <c r="G46" t="s">
-        <v>133</v>
-      </c>
-      <c r="H46" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D47" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G47" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D48" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G48" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H48" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5486,42 +5591,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5546,68 +5651,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="3:5">
       <c r="C3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="3:5">
       <c r="C5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -5637,8 +5742,8 @@
   <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -5773,7 +5878,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:P19"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -5840,31 +5945,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-    </row>
+    <row r="14" customFormat="1"/>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1"/>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
     <row r="26" spans="2:2">
       <c r="B26" s="2"/>
     </row>
@@ -5879,8 +5964,8 @@
   <sheetPr/>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -5890,22 +5975,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -5913,43 +5998,43 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:2">
@@ -5971,10 +6056,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -5984,12 +6069,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -5997,186 +6082,192 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="2"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -6186,18 +6277,18 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -6205,35 +6296,60 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="2"/>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6246,8 +6362,8 @@
   <sheetPr/>
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -6257,108 +6373,108 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="2:2">
@@ -6383,105 +6499,105 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6506,74 +6622,74 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/多线程/多线程基础.xlsx
+++ b/多线程/多线程基础.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="847"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="847" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ThreadLocal" sheetId="9" r:id="rId1"/>
@@ -421,13 +421,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>3、很不巧，位置i的Entry对象，</t>
     </r>
     <r>
@@ -1718,7 +1711,72 @@
     <t>线程池的技术原理是什么</t>
   </si>
   <si>
-    <t>预先启动一些线程，线程无限循环从任务队列中获取一个任务进行执行，直到线程池被关闭。如果某个线程因为执行某个任务发生异常而终止，那么重新创建一个新的线程而已。如此反复。</t>
+    <r>
+      <t>预先启动</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一些线程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，线程</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无限循环从任务队列中获取一个任务进行执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直到线程池被关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。如果某个线程因为执行某个任务发生异常而终止，那么重新创建一个新的线程而已。如此反复。</t>
+    </r>
   </si>
   <si>
     <t>ExecutorService与Executor</t>
@@ -1737,6 +1795,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>分为读锁和写锁</t>
     </r>
     <r>
@@ -2579,22 +2645,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2609,7 +2689,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2624,55 +2749,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2686,29 +2774,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2730,7 +2796,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2742,13 +2862,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2760,157 +2976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2921,41 +2987,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2970,6 +3001,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2998,26 +3053,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3027,10 +3093,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3039,133 +3105,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4712,8 +4778,8 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -5742,8 +5808,8 @@
   <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -6058,8 +6124,8 @@
   <sheetPr/>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -6242,7 +6308,7 @@
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6267,7 +6333,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -6362,8 +6428,8 @@
   <sheetPr/>
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>

--- a/多线程/多线程基础.xlsx
+++ b/多线程/多线程基础.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="847" activeTab="6"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="909" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ThreadLocal" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="381">
   <si>
     <t>ThreadLocal</t>
   </si>
@@ -421,6 +421,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>3、很不巧，位置i的Entry对象，</t>
     </r>
     <r>
@@ -1273,6 +1280,229 @@
     <t>CyclicBarrier和CountDownLatch的区别</t>
   </si>
   <si>
+    <t>Java中如何让多线程按照自己指定的顺序执行？</t>
+  </si>
+  <si>
+    <t>thread.join的含义是当前线程需要等待previousThread线程终止之后才从thread.join返回。简单来说，就是线程没有执行完之前，会一直阻塞在join方法处。</t>
+  </si>
+  <si>
+    <t>Thread.join的实现原理</t>
+  </si>
+  <si>
+    <t>join方法的本质调用的是Object中的wait方法实现线程的阻塞</t>
+  </si>
+  <si>
+    <t>调用wait方法必须要获取锁，所以join方法是被synchronized修饰的</t>
+  </si>
+  <si>
+    <t>synchronized修饰在方法层面相当于synchronized(this),this就是previousThread本身的实例。</t>
+  </si>
+  <si>
+    <r>
+      <t>Thread.join其实底层是通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wait/notifyall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来实现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程的通信达到线程阻塞的目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>当线程执行结束以后，会触发两个事情，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第一个是设置native线程对象为null、</t>
+    </r>
+  </si>
+  <si>
+    <t>第二个是通过notifyall方法，让等待在previousThread对象锁上的wait方法被唤醒。</t>
+  </si>
+  <si>
+    <t>join为什么阻塞的是主线程呢?</t>
+  </si>
+  <si>
+    <t>主线程会持有previousThread这个对象的锁，然后调用wait方法去阻塞，而这个方法的调用者是在主线程中的。所以造成主线程阻塞。</t>
+  </si>
+  <si>
+    <t>为什么previousThread线程执行完毕就能够唤醒住线程呢？或者说是在什么时候唤醒的？</t>
+  </si>
+  <si>
+    <r>
+      <t>通过wait方法阻塞的线程，需要通过notify或者notifyall来唤醒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。所以在线程</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>执行完毕以后会有一个唤醒的操作</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lock.notify_all(thread); 唤醒所有等待thread锁的线程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，意味着调用了join方法被阻塞的主线程会被唤醒</t>
+    </r>
+  </si>
+  <si>
+    <t>Callable</t>
+  </si>
+  <si>
+    <t>Callable 可以 看成与 Runnable 一样的但是有返回值的接口。</t>
+  </si>
+  <si>
+    <t>Callable接口的call()方法有返回值，而Runnable接口的run方法没有返回值；</t>
+  </si>
+  <si>
+    <t>Callable接口的call()方法可以声明抛出异常，而Runnable接口的run方法不可以声明抛出异常。</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <r>
+      <t>Future就是对于具体的Runnable或者Callabl</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e任务的执行结果进行取消、查询是否完成、获取结果等操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>必要时可以通过get方法获取执行结果，该方法会阻塞直到任务返回结果。</t>
+  </si>
+  <si>
+    <t>FutureTask</t>
+  </si>
+  <si>
+    <t>FutureTask是Future接口的一个唯一实现类。</t>
+  </si>
+  <si>
+    <t>FutureTask实现了Runnable，因此它既可以通过Thread包装来直接执行，也可以提交给ExecuteService来执行。</t>
+  </si>
+  <si>
+    <r>
+      <t>FutureTask实现了Futrue可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直接通过get()函数获取执行结果，该函数会阻塞，直到结果返回。</t>
+    </r>
+  </si>
+  <si>
+    <t>interrupt</t>
+  </si>
+  <si>
+    <t>用于打一个中断标志位</t>
+  </si>
+  <si>
+    <t>Java是将中断线程的权利交给了我们自己的程序，通过中断标志位，我们的程序可以通过boolean isInterrupted()方法来判断当前线程是否中断，从而决定之后的操作。</t>
+  </si>
+  <si>
     <t>什么是线程池：</t>
   </si>
   <si>
@@ -1345,6 +1575,54 @@
     <t>任务队列（taskQueue）：用于存放没有处理的任务。提供一种缓冲机制。</t>
   </si>
   <si>
+    <t>ExecutorService</t>
+  </si>
+  <si>
+    <t>ExecutorService其实是一个线程池，它可以接收任务，然后根据配置来分配线程，并控制其调度。</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>newCacheThreadPool</t>
+  </si>
+  <si>
+    <t>这种线程池是无界线程池，即它可以创建任意条线程。</t>
+  </si>
+  <si>
+    <t>每次创建新线程时，先检查自己的缓存池中有没有，没有才会创建。</t>
+  </si>
+  <si>
+    <t>它有默认的TimeOut(=60s)，超过这个时长没活动的线程就会被自动的移除，所以完全不必要担心线程的结束问题。</t>
+  </si>
+  <si>
+    <t>newFixedThreadPool</t>
+  </si>
+  <si>
+    <t>这个线程和newCacheThreadPool很类似，不同点在于</t>
+  </si>
+  <si>
+    <t>它有线程数量上限</t>
+  </si>
+  <si>
+    <t>它没有默认的TimeOut</t>
+  </si>
+  <si>
+    <t>ScheduledThreadPool</t>
+  </si>
+  <si>
+    <t>它可以按照顺序延迟调度线程。</t>
+  </si>
+  <si>
+    <t>SingleThreadPool</t>
+  </si>
+  <si>
+    <t>它只有一条线程。</t>
+  </si>
+  <si>
+    <t>感觉并没有多大用处。</t>
+  </si>
+  <si>
     <t>常见线程池</t>
   </si>
   <si>
@@ -1712,6 +1990,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>预先启动</t>
     </r>
     <r>
@@ -1984,6 +2269,21 @@
   </si>
   <si>
     <t>当锁被另一个线程拥有时，调用lock的线程可以成功获取锁。如果锁已经被当前线程拥有，当前线程会立即返回</t>
+  </si>
+  <si>
+    <t>Java中的线程一共6种状态</t>
+  </si>
+  <si>
+    <t>Java中的线程一共6种状态，分别是NEW，RUNNABLE，BLOCKED，WAITING，TIMED_WAITING，TERMINATED</t>
+  </si>
+  <si>
+    <t>WAITING 一个线程在等待另一个线程执行一个动作时在这个状态</t>
+  </si>
+  <si>
+    <t>TIMED_WAITING 一个线程在一个特定的等待时间内等待另一个线程完成一个动作会在这个状态</t>
+  </si>
+  <si>
+    <t>BLOCKED 这种状态是指一个阻塞线程在等待monitor锁。</t>
   </si>
   <si>
     <t>List接口的实现类</t>
@@ -2622,8 +2922,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -2645,14 +2945,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2667,12 +2960,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2680,9 +2982,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2696,45 +2997,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2748,9 +3011,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2764,9 +3042,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2781,7 +3058,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2796,7 +3096,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2808,7 +3126,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2820,7 +3144,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2832,25 +3204,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2862,49 +3222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2916,37 +3234,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2964,19 +3258,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2991,6 +3291,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3001,15 +3331,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3029,17 +3350,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3055,35 +3370,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3093,10 +3393,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3105,133 +3405,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3391,6 +3691,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>328295</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="5867400"/>
+          <a:ext cx="3423920" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3400,13 +3742,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3424,7 +3766,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="8029575"/>
+          <a:off x="714375" y="11649075"/>
           <a:ext cx="6543675" cy="2514600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4949,120 +5291,120 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -5084,257 +5426,257 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5361,280 +5703,280 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="D42" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="G42" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="H42" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="G43" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="H43" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="D44" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="G44" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="H44" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="D45" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="G45" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="H45" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="D46" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="G46" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="H46" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="D47" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="G47" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="H47" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="D48" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="G48" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="H48" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>305</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -5657,42 +5999,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5717,68 +6059,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="3:5">
       <c r="C3" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="3:5">
       <c r="C5" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="E5" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="E7" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="E8" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="E9" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -5808,8 +6150,8 @@
   <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -6028,10 +6370,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -6112,6 +6454,146 @@
     <row r="27" spans="2:2">
       <c r="B27" s="2"/>
     </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6122,25 +6604,25 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -6148,176 +6630,256 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="2" t="s">
-        <v>83</v>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>99</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>108</v>
+      <c r="B31" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -6333,7 +6895,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -6343,18 +6905,18 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -6362,57 +6924,82 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2"/>
@@ -6428,7 +7015,7 @@
   <sheetPr/>
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -6439,108 +7026,108 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="2:2">
@@ -6565,105 +7152,105 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6688,74 +7275,74 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/多线程/多线程基础.xlsx
+++ b/多线程/多线程基础.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="909" activeTab="3"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="909" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ThreadLocal" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="385">
   <si>
     <t>ThreadLocal</t>
   </si>
@@ -1104,6 +1104,18 @@
     <t>保证了不同线程对该变量操作的内存可见性。</t>
   </si>
   <si>
+    <t>happen - before(先行发生原则)来阐述操作之间内存的可见性,也就是前一个的操作结果对后一个操作可见</t>
+  </si>
+  <si>
+    <t>先来说一说内存屏障(memory barrier)，这是一条CPU指令，可以影响数据的可见性。</t>
+  </si>
+  <si>
+    <t>当变量用volatile修饰时，将会在写操作的后面加一条屏障指令，在读操作的前面加一条屏障指令</t>
+  </si>
+  <si>
+    <t>这样的话，一旦你写入完成，可以保证其他线程读到最新值，也就保证了可见性。</t>
+  </si>
+  <si>
     <t>禁止指令重排序。</t>
   </si>
   <si>
@@ -1299,6 +1311,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Thread.join其实底层是通过</t>
     </r>
     <r>
@@ -1346,6 +1365,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当线程执行结束以后，会触发两个事情，</t>
     </r>
     <r>
@@ -1374,6 +1400,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>通过wait方法阻塞的线程，需要通过notify或者notifyall来唤醒</t>
     </r>
     <r>
@@ -1400,6 +1434,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>调用</t>
     </r>
     <r>
@@ -1441,6 +1482,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Future就是对于具体的Runnable或者Callabl</t>
     </r>
     <r>
@@ -1479,6 +1527,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>FutureTask实现了Futrue可以</t>
     </r>
     <r>
@@ -2943,40 +2998,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2990,7 +3013,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3003,8 +3040,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3012,14 +3072,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3042,10 +3102,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3057,31 +3134,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3096,7 +3151,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3108,13 +3169,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3126,13 +3223,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3144,25 +3277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3174,13 +3289,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3192,61 +3319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3258,25 +3331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3287,36 +3342,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3353,8 +3378,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3370,6 +3395,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3379,11 +3428,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3393,10 +3448,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3405,133 +3460,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5291,120 +5346,120 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -5426,257 +5481,257 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5703,280 +5758,280 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D42" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G42" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H42" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G43" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H43" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D44" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G44" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H44" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D45" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G45" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H45" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D46" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G46" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H46" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D47" t="s">
+        <v>351</v>
+      </c>
+      <c r="G47" t="s">
+        <v>352</v>
+      </c>
+      <c r="H47" t="s">
         <v>347</v>
-      </c>
-      <c r="G47" t="s">
-        <v>348</v>
-      </c>
-      <c r="H47" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D48" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G48" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H48" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -5999,42 +6054,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -6059,68 +6114,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="3:5">
       <c r="C3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="3:5">
       <c r="C5" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E8" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E9" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -6285,8 +6340,8 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -6304,42 +6359,40 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:3">
+      <c r="B3" s="2"/>
+      <c r="C3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
-      <c r="C7" t="s">
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
-      <c r="C8" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
-      <c r="C9" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6353,9 +6406,31 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" customFormat="1"/>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1"/>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="17" customFormat="1"/>
     <row r="18" customFormat="1"/>
     <row r="26" spans="2:2">
@@ -6372,7 +6447,7 @@
   <sheetPr/>
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
@@ -6383,22 +6458,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -6406,43 +6481,43 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:2">
@@ -6456,142 +6531,142 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -6617,12 +6692,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -6630,248 +6705,248 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="4:4">
       <c r="D41" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="2:2">
@@ -6879,7 +6954,7 @@
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -6905,18 +6980,18 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -6924,53 +6999,53 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="2:2">
@@ -6978,27 +7053,27 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="2:2">
@@ -7026,108 +7101,108 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="2:2">
@@ -7152,105 +7227,105 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -7275,74 +7350,74 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/多线程/多线程基础.xlsx
+++ b/多线程/多线程基础.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="909" activeTab="2"/>
+    <workbookView windowWidth="25200" windowHeight="12240" tabRatio="909"/>
   </bookViews>
   <sheets>
     <sheet name="ThreadLocal" sheetId="9" r:id="rId1"/>
@@ -2977,8 +2977,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -3005,8 +3005,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3019,8 +3035,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3040,55 +3073,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3104,15 +3091,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3123,22 +3139,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3157,43 +3157,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3205,67 +3169,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3283,7 +3187,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3295,13 +3235,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3313,7 +3259,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3325,7 +3295,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3346,21 +3346,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3375,29 +3360,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3428,17 +3401,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3448,10 +3448,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3460,16 +3460,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3478,115 +3478,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5175,8 +5175,8 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -6340,7 +6340,7 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -6419,14 +6419,12 @@
     </row>
     <row r="15" customFormat="1" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15"/>
       <c r="C15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16"/>
       <c r="C16" t="s">
         <v>65</v>
       </c>

--- a/多线程/多线程基础.xlsx
+++ b/多线程/多线程基础.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240" tabRatio="909"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="909" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ThreadLocal" sheetId="9" r:id="rId1"/>
@@ -1104,16 +1104,161 @@
     <t>保证了不同线程对该变量操作的内存可见性。</t>
   </si>
   <si>
-    <t>happen - before(先行发生原则)来阐述操作之间内存的可见性,也就是前一个的操作结果对后一个操作可见</t>
-  </si>
-  <si>
-    <t>先来说一说内存屏障(memory barrier)，这是一条CPU指令，可以影响数据的可见性。</t>
-  </si>
-  <si>
-    <t>当变量用volatile修饰时，将会在写操作的后面加一条屏障指令，在读操作的前面加一条屏障指令</t>
-  </si>
-  <si>
-    <t>这样的话，一旦你写入完成，可以保证其他线程读到最新值，也就保证了可见性。</t>
+    <r>
+      <t>happen - before(先行发生原则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)来阐述操作之间内存的可见性,也就是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前一个的操作结果对后一个操作可见</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>先来说一说</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内存屏障(memory barrier)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这是一条CPU指令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以影响数据的可见性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>当变量用volatile修饰时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，将会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在写操作的后面加一条屏障指令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在读操作的前面加一条屏障指令</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这样的话，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一旦你写入完成，可以保证其他线程读到最新值，也就保证了可见性。</t>
+    </r>
   </si>
   <si>
     <t>禁止指令重排序。</t>
@@ -2255,7 +2400,72 @@
     <t>在资源竞争不是很激烈的情况下，偶尔会有同步的情形下，synchronized是很合适的。原因在于，编译程序通常会尽可能的进行优化</t>
   </si>
   <si>
-    <t>ReentrantLock 类实现了 Lock ，它拥有与 synchronized 相同的并发性和内存语义，但是添加了类似轮询锁、定时锁等候和可中断锁等候的一些特性。此外，它还提供了在激烈争用情况下更佳的性能。</t>
+    <r>
+      <t>ReentrantLock 类实现了 Lock ，它拥有与 synchronized 相同的并发性和内存语义，但是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添加了类似轮询锁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定时锁等候</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可中断锁等候</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的一些特性。此外，它还提供了在激烈争用情况下更佳的性能。</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2977,9 +3187,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2998,16 +3208,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3020,24 +3253,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3053,21 +3270,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3082,63 +3330,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3151,43 +3361,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3199,19 +3385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3229,37 +3409,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3271,31 +3445,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3313,25 +3475,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3342,6 +3552,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3360,6 +3594,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3371,6 +3614,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3400,58 +3652,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3460,133 +3670,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5175,8 +5385,8 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -6205,8 +6415,8 @@
   <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -6341,7 +6551,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -6361,22 +6571,22 @@
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="2"/>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6967,8 +7177,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -7032,7 +7242,7 @@
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>167</v>
       </c>
     </row>

--- a/多线程/多线程基础.xlsx
+++ b/多线程/多线程基础.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="909" activeTab="5"/>
+    <workbookView windowWidth="25200" windowHeight="12240" tabRatio="909" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ThreadLocal" sheetId="9" r:id="rId1"/>
@@ -1105,6 +1105,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>happen - before(先行发生原则</t>
     </r>
     <r>
@@ -1131,6 +1139,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>先来说一说</t>
     </r>
     <r>
@@ -1199,6 +1214,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当变量用volatile修饰时</t>
     </r>
     <r>
@@ -1246,6 +1269,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这样的话，</t>
     </r>
     <r>
@@ -1446,13 +1476,72 @@
     <t>Thread.join的实现原理</t>
   </si>
   <si>
-    <t>join方法的本质调用的是Object中的wait方法实现线程的阻塞</t>
-  </si>
-  <si>
-    <t>调用wait方法必须要获取锁，所以join方法是被synchronized修饰的</t>
-  </si>
-  <si>
-    <t>synchronized修饰在方法层面相当于synchronized(this),this就是previousThread本身的实例。</t>
+    <r>
+      <t>join方法的本质调用的是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object中的wait方法实现线程的阻塞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>调用wait方法必须要获取锁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所以join方法是被synchronized修饰的</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>synchronized修饰在方法层面</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相当于synchronized(this)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,this就是previousThread本身的实例。</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1700,20 +1789,57 @@
     <t>用于打一个中断标志位</t>
   </si>
   <si>
-    <t>Java是将中断线程的权利交给了我们自己的程序，通过中断标志位，我们的程序可以通过boolean isInterrupted()方法来判断当前线程是否中断，从而决定之后的操作。</t>
+    <r>
+      <t>Java是将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中断线程的权利交给了我们自己的程序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，通过中断标志位，我们的程序可以通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boolean isInterrupted()方法来判断当前线程是否中断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，从而决定之后的操作。</t>
+    </r>
   </si>
   <si>
     <t>什么是线程池：</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>多线程技术主要解决处理器单元内</t>
     </r>
     <r>
@@ -1756,7 +1882,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，增加处理器单元的吞吐能力</t>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>增加处理器单元的吞吐能力</t>
     </r>
   </si>
   <si>
@@ -2401,6 +2538,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ReentrantLock 类实现了 Lock ，它拥有与 synchronized 相同的并发性和内存语义，但是</t>
     </r>
     <r>
@@ -3186,10 +3330,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -3208,37 +3352,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -3248,13 +3362,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3277,14 +3384,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3300,7 +3437,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3314,6 +3451,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -3321,7 +3473,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3331,24 +3482,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3361,19 +3505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3385,13 +3517,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3403,67 +3565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3481,7 +3589,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3493,13 +3661,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3511,37 +3673,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3557,9 +3701,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3575,54 +3730,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3644,11 +3751,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3658,10 +3802,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3670,133 +3814,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6415,7 +6559,7 @@
   <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -6550,7 +6694,7 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -6655,8 +6799,8 @@
   <sheetPr/>
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -6753,17 +6897,17 @@
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6873,7 +7017,7 @@
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6889,8 +7033,8 @@
   <sheetPr/>
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:K21"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -7177,8 +7321,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -7298,7 +7442,7 @@
   <sheetPr/>
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
